--- a/data/hotels_by_city/Houston/Houston_shard_464.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_464.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="749">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d1743729-Reviews-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Pearland.h1823066.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,2142 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r598470451-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1743729</t>
+  </si>
+  <si>
+    <t>598470451</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Thanks Misty</t>
+  </si>
+  <si>
+    <t>Misty was so gracious to ensure we received our points when checking in. Although our room was not ready, she gave us another one that was so we did not have to wait. Thank you for your kindness and excellent customer service. It was greatly appreciated. The Hickman FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Misty was so gracious to ensure we received our points when checking in. Although our room was not ready, she gave us another one that was so we did not have to wait. Thank you for your kindness and excellent customer service. It was greatly appreciated. The Hickman FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r593399328-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>593399328</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Not  Friendly to Gun Owners</t>
+  </si>
+  <si>
+    <t>When I arrived I found a  small  photocopy of the Texas 30.06 sign advising  persons with a concealed carry licence were not welcome.  First, the sign was not legal because it  did not meet the state standards.  Had it not been late I would have left then. In the morning when I told the staff I was checking out due to the anti-gun stance the ownership had taken they said they did not even know the sign was there.  I went down the road to the Courtyard where I was welcomed.  This is not a bad facility and the front desk staff was very friendly. I will not ever stay here again and will be posting this La Quinta on the website for non-gun friendly business, Texas 3006.com and others.  I would not have been upset if they had posted they were a 30.06 business on their web site.  I would have never made a reservation.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
+  </si>
+  <si>
+    <t>When I arrived I found a  small  photocopy of the Texas 30.06 sign advising  persons with a concealed carry licence were not welcome.  First, the sign was not legal because it  did not meet the state standards.  Had it not been late I would have left then. In the morning when I told the staff I was checking out due to the anti-gun stance the ownership had taken they said they did not even know the sign was there.  I went down the road to the Courtyard where I was welcomed.  This is not a bad facility and the front desk staff was very friendly. I will not ever stay here again and will be posting this La Quinta on the website for non-gun friendly business, Texas 3006.com and others.  I would not have been upset if they had posted they were a 30.06 business on their web site.  I would have never made a reservation.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r593227971-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>593227971</t>
+  </si>
+  <si>
+    <t>It's the Little Things</t>
+  </si>
+  <si>
+    <t>I stayed here one night as I passed through Houston. Check in went smoothly, our room was nice, and my kids had a fine time swimming in the pool (the hot tub was out of service). I went to the workout room to get my 30 minutes in, but was disappointed in my choices. The one treadmill was broken and unusable, and the one elliptical was lopsided and I felt like it was going to fall apart under me at any minute.  Needless to say, the workout area needs quite a bit of "work". However, it wasn't too big of a deal because who really stays at a hotel to work out?  The breakfast area was nice and basic--eggs, sausage, waffles, etc--regular La Quinta breakfast which my family likes. Again, when it came time to find forks to eat with, however, I couldn't locate any. The receptacle which was supposed to have them was empty (on a Monday) and there was no one at the front desk or in the kitchen area to ask to get more. I had to dig through several drawers in the kitchen area just to find extra forks so my family could eat; again, not too big of a deal--just inconvenient. As we went back to our room, however, to brush our teeth, I noticed our bathroom sink looked like it had black dirt in it. I incredulously looked closer and saw that it was...I stayed here one night as I passed through Houston. Check in went smoothly, our room was nice, and my kids had a fine time swimming in the pool (the hot tub was out of service). I went to the workout room to get my 30 minutes in, but was disappointed in my choices. The one treadmill was broken and unusable, and the one elliptical was lopsided and I felt like it was going to fall apart under me at any minute.  Needless to say, the workout area needs quite a bit of "work". However, it wasn't too big of a deal because who really stays at a hotel to work out?  The breakfast area was nice and basic--eggs, sausage, waffles, etc--regular La Quinta breakfast which my family likes. Again, when it came time to find forks to eat with, however, I couldn't locate any. The receptacle which was supposed to have them was empty (on a Monday) and there was no one at the front desk or in the kitchen area to ask to get more. I had to dig through several drawers in the kitchen area just to find extra forks so my family could eat; again, not too big of a deal--just inconvenient. As we went back to our room, however, to brush our teeth, I noticed our bathroom sink looked like it had black dirt in it. I incredulously looked closer and saw that it was covered in BUGS!  Now this it a BIG DEAL!  I cannot take bug infestation lightly. I have no idea where they came from and immediately washed them all down the sink. Unfortunately, this was my last impression of the hotel and although all other areas were nice enough, I will not stay here again. There are plenty of other La Quinta's in Houston that I have stayed in that are better than this establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed here one night as I passed through Houston. Check in went smoothly, our room was nice, and my kids had a fine time swimming in the pool (the hot tub was out of service). I went to the workout room to get my 30 minutes in, but was disappointed in my choices. The one treadmill was broken and unusable, and the one elliptical was lopsided and I felt like it was going to fall apart under me at any minute.  Needless to say, the workout area needs quite a bit of "work". However, it wasn't too big of a deal because who really stays at a hotel to work out?  The breakfast area was nice and basic--eggs, sausage, waffles, etc--regular La Quinta breakfast which my family likes. Again, when it came time to find forks to eat with, however, I couldn't locate any. The receptacle which was supposed to have them was empty (on a Monday) and there was no one at the front desk or in the kitchen area to ask to get more. I had to dig through several drawers in the kitchen area just to find extra forks so my family could eat; again, not too big of a deal--just inconvenient. As we went back to our room, however, to brush our teeth, I noticed our bathroom sink looked like it had black dirt in it. I incredulously looked closer and saw that it was...I stayed here one night as I passed through Houston. Check in went smoothly, our room was nice, and my kids had a fine time swimming in the pool (the hot tub was out of service). I went to the workout room to get my 30 minutes in, but was disappointed in my choices. The one treadmill was broken and unusable, and the one elliptical was lopsided and I felt like it was going to fall apart under me at any minute.  Needless to say, the workout area needs quite a bit of "work". However, it wasn't too big of a deal because who really stays at a hotel to work out?  The breakfast area was nice and basic--eggs, sausage, waffles, etc--regular La Quinta breakfast which my family likes. Again, when it came time to find forks to eat with, however, I couldn't locate any. The receptacle which was supposed to have them was empty (on a Monday) and there was no one at the front desk or in the kitchen area to ask to get more. I had to dig through several drawers in the kitchen area just to find extra forks so my family could eat; again, not too big of a deal--just inconvenient. As we went back to our room, however, to brush our teeth, I noticed our bathroom sink looked like it had black dirt in it. I incredulously looked closer and saw that it was covered in BUGS!  Now this it a BIG DEAL!  I cannot take bug infestation lightly. I have no idea where they came from and immediately washed them all down the sink. Unfortunately, this was my last impression of the hotel and although all other areas were nice enough, I will not stay here again. There are plenty of other La Quinta's in Houston that I have stayed in that are better than this establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r591555718-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>591555718</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r591046675-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>591046675</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Great location in need of a bit of upkeep</t>
+  </si>
+  <si>
+    <t>Fitness room was in bad shape, the treadmill &amp; recumbent bike weren't working, towels were smelly, and the elliptical was wobbly.  Room itself - wall mirror broken, sheets were dirty (maybe sand) bathroom mirror was not clean. Overall upkeep could be improved. Eric the desk attendant when we arrived was very helpful. Breakfast at this La Quinta was 6-9 on a Saturday unlike other La Quintas where Sat/Sun breakfast is 7-10. I thought the entire chain was the same across the board. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Fitness room was in bad shape, the treadmill &amp; recumbent bike weren't working, towels were smelly, and the elliptical was wobbly.  Room itself - wall mirror broken, sheets were dirty (maybe sand) bathroom mirror was not clean. Overall upkeep could be improved. Eric the desk attendant when we arrived was very helpful. Breakfast at this La Quinta was 6-9 on a Saturday unlike other La Quintas where Sat/Sun breakfast is 7-10. I thought the entire chain was the same across the board. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r590448377-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>590448377</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>La Quinta Pearland</t>
+  </si>
+  <si>
+    <t>We stayed here one night passing thru the Houston area on our way to Galveston. The location was great for our needs. The hotel was in good condition. We were satisfied with the condition of the room. We did not like the food selection nor the quality of the food. We were bothered by dogs during the night barking in the hallway. Other than that the sleeping conditions were great! I love  La Quinta pillows!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here one night passing thru the Houston area on our way to Galveston. The location was great for our needs. The hotel was in good condition. We were satisfied with the condition of the room. We did not like the food selection nor the quality of the food. We were bothered by dogs during the night barking in the hallway. Other than that the sleeping conditions were great! I love  La Quinta pillows!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r585466644-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>585466644</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>My wife and I spent three nights at La Quinta and ate our breakfasts at the hotel. There was a great variety of food tastefully presented. The room was very comfortable and had everything we needed. The staff was very friendly and helpful. We would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I spent three nights at La Quinta and ate our breakfasts at the hotel. There was a great variety of food tastefully presented. The room was very comfortable and had everything we needed. The staff was very friendly and helpful. We would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r584203603-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>584203603</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r583745814-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>583745814</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r579785358-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>579785358</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Recommended Hotel in Pearland Area</t>
+  </si>
+  <si>
+    <t>This is a dependable, clean, user-friendly, guest-friendly, pet-friendly hotel in a good area. We were very pleased with the accommodations and staff. Complimentary breakfast, open lot parking, pool, exercise room, and pet-friendly make this a great hotel choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>This is a dependable, clean, user-friendly, guest-friendly, pet-friendly hotel in a good area. We were very pleased with the accommodations and staff. Complimentary breakfast, open lot parking, pool, exercise room, and pet-friendly make this a great hotel choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r579579204-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>579579204</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Clean, Newer Construction, Safe Area</t>
+  </si>
+  <si>
+    <t>My dog had an early Sat vet appointment and since we live over an hour away and return only for the vet, we overnighted this time at La Quinta.  This is a fabulous property though we found the king mattress in #117 overly firm for us, other than that a great say. Hallways are VERY narrow so when passing other guests uncomfortable by our 60 pound pitfall mix who is not aggressive and very well trained, I still felt a little bad for them because even when we stood to the side and held his collar and told them he was friendly they still had to pass very near him. Other than that, GREAT STAYMoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>My dog had an early Sat vet appointment and since we live over an hour away and return only for the vet, we overnighted this time at La Quinta.  This is a fabulous property though we found the king mattress in #117 overly firm for us, other than that a great say. Hallways are VERY narrow so when passing other guests uncomfortable by our 60 pound pitfall mix who is not aggressive and very well trained, I still felt a little bad for them because even when we stood to the side and held his collar and told them he was friendly they still had to pass very near him. Other than that, GREAT STAYMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r575468305-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>575468305</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>I cannot believe I haven't left a review for this hotel before. We've stayed here several times, always in the same room, and I forgot to leave a review. We've always had a good stay here. Our dogs like the walking area around the small ponds with fountains. Breakfast is considered a hot breakfast with egg patties, sausage patties, potatoes, waffles, biscuits and gravy, cold cereal, yogurt, bagels, fresh fruit, orange juice, apple juice, and flavored water. They have a pool, which we've never used, laundry machines for guests, snack area by front desk, DirectTV in the rooms and free WiFi. It is pet friendly. The staff spoke English that we could understand. We had tiny ants coming out of the AC unit in our room during this stay. Front desk came up quickly to try to take care of them. They weren't completely gone, but maintenance was summoned the next day after our departure. I'd rather have to deal with little ants in the AC then something bigger and worse. We will stay here again when in the area. We'd also recommend this hotel to friends and family. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>I cannot believe I haven't left a review for this hotel before. We've stayed here several times, always in the same room, and I forgot to leave a review. We've always had a good stay here. Our dogs like the walking area around the small ponds with fountains. Breakfast is considered a hot breakfast with egg patties, sausage patties, potatoes, waffles, biscuits and gravy, cold cereal, yogurt, bagels, fresh fruit, orange juice, apple juice, and flavored water. They have a pool, which we've never used, laundry machines for guests, snack area by front desk, DirectTV in the rooms and free WiFi. It is pet friendly. The staff spoke English that we could understand. We had tiny ants coming out of the AC unit in our room during this stay. Front desk came up quickly to try to take care of them. They weren't completely gone, but maintenance was summoned the next day after our departure. I'd rather have to deal with little ants in the AC then something bigger and worse. We will stay here again when in the area. We'd also recommend this hotel to friends and family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r556277793-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>556277793</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r550072304-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>550072304</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>A home away from home</t>
+  </si>
+  <si>
+    <t>We stayed at LQ for two weeks during a particular stressful time...a long distance move from Texas to California during the holiday season.  The entire staff was extremely professional and worked very hard to keep us comfortable during our stay.  Dipti, especially, made our trip special.  I met her at check-in when I was exhausted, cold, and frazzled from dealing with movers all day long.  She calmed me down and settled us in.  Besides being super efficient and multi-tasking, she possesses great people skills...She greets long term guests BY NAME and with such a warm smile.  She really made LQ feel like a home away from home.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at LQ for two weeks during a particular stressful time...a long distance move from Texas to California during the holiday season.  The entire staff was extremely professional and worked very hard to keep us comfortable during our stay.  Dipti, especially, made our trip special.  I met her at check-in when I was exhausted, cold, and frazzled from dealing with movers all day long.  She calmed me down and settled us in.  Besides being super efficient and multi-tasking, she possesses great people skills...She greets long term guests BY NAME and with such a warm smile.  She really made LQ feel like a home away from home.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r548517064-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>548517064</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I gave it 5 stars because I really can't think of anything negative to say about this hotel. The room was clean, the staff friendly, and the rate was fair. The breakfast was also very good.  I frequently stay in La Quintas all over Texas and have been seeing more and more La Quintas that suck, but this one is one of the good ones. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>I gave it 5 stars because I really can't think of anything negative to say about this hotel. The room was clean, the staff friendly, and the rate was fair. The breakfast was also very good.  I frequently stay in La Quintas all over Texas and have been seeing more and more La Quintas that suck, but this one is one of the good ones. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r541958168-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>541958168</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>We moved to this hotel after having a terrible night at another La Quinta a few miles away. This one was a little more money, but boy was it worth it.The room was amazing. A/C that worked when we needed it to. Huge bathroom. Comfy beds. Big TV with premium channels. Desk to work at. Quiet. What more could we ask for? The breakfast was really good. The seats and tables were nice, the atmosphere was comfortable. A good selection of hot and cold foods, we ate a lot the both days we stayed, and had no complaints either time. The service was great. The two receptionists we spoke to were very friendly and welcoming. One night my daughter was ill and we needed to change her seats, they handled this great and replaced our sheets earlier than they would usually. The pool was very cold though! But, it is November. The Hot tub was out of service, so I cannot talk about that. Should I ever be in Houston, I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>We moved to this hotel after having a terrible night at another La Quinta a few miles away. This one was a little more money, but boy was it worth it.The room was amazing. A/C that worked when we needed it to. Huge bathroom. Comfy beds. Big TV with premium channels. Desk to work at. Quiet. What more could we ask for? The breakfast was really good. The seats and tables were nice, the atmosphere was comfortable. A good selection of hot and cold foods, we ate a lot the both days we stayed, and had no complaints either time. The service was great. The two receptionists we spoke to were very friendly and welcoming. One night my daughter was ill and we needed to change her seats, they handled this great and replaced our sheets earlier than they would usually. The pool was very cold though! But, it is November. The Hot tub was out of service, so I cannot talk about that. Should I ever be in Houston, I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r531267369-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>531267369</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>SMOKE FREE HOTEL  VERY PET FRIENDLY</t>
+  </si>
+  <si>
+    <t>We are so grateful to have a smoke free and pet friendly hotel.  When we travel now we know that we can also check out LaQuinta for a choice of hotel.  This hotel was clean, well maintained and had excellent service.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>We are so grateful to have a smoke free and pet friendly hotel.  When we travel now we know that we can also check out LaQuinta for a choice of hotel.  This hotel was clean, well maintained and had excellent service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r530094441-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>530094441</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>COMFORT</t>
+  </si>
+  <si>
+    <t>We had an electrical fire that put us out of our home temporarily at the same time many were displaced due to the hurricane. La Quinta was the only hotel that was able to accommodate us. I recommend this hotel to anyone whether displaced, on business, or just for leisure.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>We had an electrical fire that put us out of our home temporarily at the same time many were displaced due to the hurricane. La Quinta was the only hotel that was able to accommodate us. I recommend this hotel to anyone whether displaced, on business, or just for leisure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r505981901-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>505981901</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Falsely accused of damage</t>
+  </si>
+  <si>
+    <t>Extremely noisy and charged and accused of damage. I had to drive 2 hours out of the way and delay my rrturn home because a manager refused to talk to me. I was lied to about the charge as well. Never again LQ!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Extremely noisy and charged and accused of damage. I had to drive 2 hours out of the way and delay my rrturn home because a manager refused to talk to me. I was lied to about the charge as well. Never again LQ!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r505052778-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>505052778</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel Experience </t>
+  </si>
+  <si>
+    <t>This La Quinta Inn is modern, clean, and is in a great location.  It feels like a expensive hotel...bed was super comfy, room was immaculate &amp; quiet.  The price was  very affordable. This was my second stay here and I'll keep coming back.  I travel a lot &amp; know when a hotel is top notch. The staff also gets top ratings from me!MoreShow less</t>
+  </si>
+  <si>
+    <t>This La Quinta Inn is modern, clean, and is in a great location.  It feels like a expensive hotel...bed was super comfy, room was immaculate &amp; quiet.  The price was  very affordable. This was my second stay here and I'll keep coming back.  I travel a lot &amp; know when a hotel is top notch. The staff also gets top ratings from me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r504654405-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>504654405</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>An excellent location to see and experience Houston.  Many local restaurants to choose for eating and easy access to Houston and surrounding cities.  Would like to see a bit of variation on the hot breakfast items - all three days I saw the same pre-cooked eggs, biscuits and sausage patties - other LaQ's have a variety that makes for nice "different" breakfast choices.  But most items (breads, waffles, cereal, fruit) is standard and can be offered daily.  Enjoyed your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>An excellent location to see and experience Houston.  Many local restaurants to choose for eating and easy access to Houston and surrounding cities.  Would like to see a bit of variation on the hot breakfast items - all three days I saw the same pre-cooked eggs, biscuits and sausage patties - other LaQ's have a variety that makes for nice "different" breakfast choices.  But most items (breads, waffles, cereal, fruit) is standard and can be offered daily.  Enjoyed your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r500404011-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>500404011</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Weekend Visit (July 7-9, 2017)</t>
+  </si>
+  <si>
+    <t>My overall night stay at this location was good.  When visiting family in the Houston/Pearland area, I like to stay at local hotels so that my children can enjoy unlimited pool and family time.  Once at the Pearland location, I noticed adequate parking and reasonable landscaping work.  On the day of check-in my husband and I were graciously greeted and promptly assisted by the front desk clerk (forgive me I cannot remember her name). She provided us with helpful information to ensure that we were aware of the various food service options in the area. To satisfy our growing boys’ appetites we chose to eat at Golden Corral (most options and affordable). Once we finished dinner and returned to the hotel, we noticed that the hotel offered many amenities (i.e. fitness room and pool).   My sons and nephew enjoyed the outdoor pool as they splashed away until closing time.  I utilized the fitness room.  If I may suggest it is time for a new treadmill because the current one needs to be thrown out.  Our rooms were fine until around 8:00 p.m. and then after that it was no go!  The newer A/C units did not work properly in both rooms; my family experienced an extremely hot night.  Finally, in the wee hours on Saturday, July 9, my husband decided to report the issue to overnight clerk because we did not want to experience the discomfort again and sleeping in...My overall night stay at this location was good.  When visiting family in the Houston/Pearland area, I like to stay at local hotels so that my children can enjoy unlimited pool and family time.  Once at the Pearland location, I noticed adequate parking and reasonable landscaping work.  On the day of check-in my husband and I were graciously greeted and promptly assisted by the front desk clerk (forgive me I cannot remember her name). She provided us with helpful information to ensure that we were aware of the various food service options in the area. To satisfy our growing boys’ appetites we chose to eat at Golden Corral (most options and affordable). Once we finished dinner and returned to the hotel, we noticed that the hotel offered many amenities (i.e. fitness room and pool).   My sons and nephew enjoyed the outdoor pool as they splashed away until closing time.  I utilized the fitness room.  If I may suggest it is time for a new treadmill because the current one needs to be thrown out.  Our rooms were fine until around 8:00 p.m. and then after that it was no go!  The newer A/C units did not work properly in both rooms; my family experienced an extremely hot night.  Finally, in the wee hours on Saturday, July 9, my husband decided to report the issue to overnight clerk because we did not want to experience the discomfort again and sleeping in our SVU was not an option. The rep informed my husband that the manager would be on duty around 8:30 a.m. (7/9/17) **fast forward**the manager agreed to give us a 10% discount due to underworking A/C unit (note: no vent on unit and unable to adjust lower than 70 degrees).  Our customer service on the day of checkout was less than best.  As I attempted to gain a better understanding as to where the 10% had been applied (to the final bill) because it was apparent the discount had not been added.  The front desk clerk, Tachara (unsure of correct spelling) was defensive and rude.  To say the least, I walked away from this establishment and I refuse to look back.  The 10% discount and the extreme heat are no longer the issues (for me) but great customer service (attitude and body language) goes a long way and my experience Ms. T was last than valuable.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>My overall night stay at this location was good.  When visiting family in the Houston/Pearland area, I like to stay at local hotels so that my children can enjoy unlimited pool and family time.  Once at the Pearland location, I noticed adequate parking and reasonable landscaping work.  On the day of check-in my husband and I were graciously greeted and promptly assisted by the front desk clerk (forgive me I cannot remember her name). She provided us with helpful information to ensure that we were aware of the various food service options in the area. To satisfy our growing boys’ appetites we chose to eat at Golden Corral (most options and affordable). Once we finished dinner and returned to the hotel, we noticed that the hotel offered many amenities (i.e. fitness room and pool).   My sons and nephew enjoyed the outdoor pool as they splashed away until closing time.  I utilized the fitness room.  If I may suggest it is time for a new treadmill because the current one needs to be thrown out.  Our rooms were fine until around 8:00 p.m. and then after that it was no go!  The newer A/C units did not work properly in both rooms; my family experienced an extremely hot night.  Finally, in the wee hours on Saturday, July 9, my husband decided to report the issue to overnight clerk because we did not want to experience the discomfort again and sleeping in...My overall night stay at this location was good.  When visiting family in the Houston/Pearland area, I like to stay at local hotels so that my children can enjoy unlimited pool and family time.  Once at the Pearland location, I noticed adequate parking and reasonable landscaping work.  On the day of check-in my husband and I were graciously greeted and promptly assisted by the front desk clerk (forgive me I cannot remember her name). She provided us with helpful information to ensure that we were aware of the various food service options in the area. To satisfy our growing boys’ appetites we chose to eat at Golden Corral (most options and affordable). Once we finished dinner and returned to the hotel, we noticed that the hotel offered many amenities (i.e. fitness room and pool).   My sons and nephew enjoyed the outdoor pool as they splashed away until closing time.  I utilized the fitness room.  If I may suggest it is time for a new treadmill because the current one needs to be thrown out.  Our rooms were fine until around 8:00 p.m. and then after that it was no go!  The newer A/C units did not work properly in both rooms; my family experienced an extremely hot night.  Finally, in the wee hours on Saturday, July 9, my husband decided to report the issue to overnight clerk because we did not want to experience the discomfort again and sleeping in our SVU was not an option. The rep informed my husband that the manager would be on duty around 8:30 a.m. (7/9/17) **fast forward**the manager agreed to give us a 10% discount due to underworking A/C unit (note: no vent on unit and unable to adjust lower than 70 degrees).  Our customer service on the day of checkout was less than best.  As I attempted to gain a better understanding as to where the 10% had been applied (to the final bill) because it was apparent the discount had not been added.  The front desk clerk, Tachara (unsure of correct spelling) was defensive and rude.  To say the least, I walked away from this establishment and I refuse to look back.  The 10% discount and the extreme heat are no longer the issues (for me) but great customer service (attitude and body language) goes a long way and my experience Ms. T was last than valuable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r499294031-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>499294031</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF YOU HAVE CHILDREN Don't EVEN THINK ABOUT IT </t>
+  </si>
+  <si>
+    <t>I stayed with my family ( 2 children 14 and 2 year old) and my husband for three days and the entire 3 days I got phone calls from the front desk saying that my toddler was bothering because he was walking and people were complaining REALLY!???? And I even had a lady ( who ever was in charge Monday July 3rd ) knocking on my door at midnight and she covered the spyhole with her finger because she knew that I was behind the door and then because I didn't opened she went downstairs and called me like 10 times at 12 o'clock at midnight!!!!!!!! SUPER HORRIBLE COSTUMER SERVICE and like I said IF YOU HAVE CHILDREN DONT EVEN THINK ABOUT IT!!!!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>I stayed with my family ( 2 children 14 and 2 year old) and my husband for three days and the entire 3 days I got phone calls from the front desk saying that my toddler was bothering because he was walking and people were complaining REALLY!???? And I even had a lady ( who ever was in charge Monday July 3rd ) knocking on my door at midnight and she covered the spyhole with her finger because she knew that I was behind the door and then because I didn't opened she went downstairs and called me like 10 times at 12 o'clock at midnight!!!!!!!! SUPER HORRIBLE COSTUMER SERVICE and like I said IF YOU HAVE CHILDREN DONT EVEN THINK ABOUT IT!!!!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r498397636-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>498397636</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Renovated Rooms With Great Service</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay.  The staff met our every needs with excellent service.  Dipti was gracious and provided great service.  We will stay here again.  I definitely recommend this hotel.  It's a great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay.  The staff met our every needs with excellent service.  Dipti was gracious and provided great service.  We will stay here again.  I definitely recommend this hotel.  It's a great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r475247635-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>475247635</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Hotel Great! Not so much with Service</t>
+  </si>
+  <si>
+    <t>The hotel inside and out is excellent if you don't need any service. The rooms are nice and spacious and clean. The tub in our suite was gross to look at but as clean as it could be. It didn't really make sense such a huge modern bath but little tub with finish missing and gross looking (maybe it's me) I opted to not use it. Breakfast was fine but no one around to ask questions. From check in to check out no one offered any local information or maps.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r474873771-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>474873771</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>This is a great hotel, very clean and the staff are the nicest and most helpful people.  Its always clean, plenty of space for me to walk my dog.  Never noisy and great hot breakfast.  They have a good sized pool and a hot tub that are always clean and the pool area is very roomy.  The front desk people are very nice and have always accommodated my needs.  One of the reasons I stay here is because LaQuinta is very pet friendly without charging any extra.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>This is a great hotel, very clean and the staff are the nicest and most helpful people.  Its always clean, plenty of space for me to walk my dog.  Never noisy and great hot breakfast.  They have a good sized pool and a hot tub that are always clean and the pool area is very roomy.  The front desk people are very nice and have always accommodated my needs.  One of the reasons I stay here is because LaQuinta is very pet friendly without charging any extra.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r472560489-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>472560489</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>All one needs...</t>
+  </si>
+  <si>
+    <t>When travelling on business, a clean, quiet room is the most important for a good night's stay. Good breakfast provided also.  Plus, having accommodations for my fur baby to be with me.  Thank you Pearland LaQuinta staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>When travelling on business, a clean, quiet room is the most important for a good night's stay. Good breakfast provided also.  Plus, having accommodations for my fur baby to be with me.  Thank you Pearland LaQuinta staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r467725082-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>467725082</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>am getting disenchanted...</t>
+  </si>
+  <si>
+    <t>This was a handicapped room .Poor plumbing- low water pressure in tub, no non-slip texture in tub or non slip mat to go in tub. towel bar about to fall off, the bed was too tall to easily get in and out of. There was no room available with king bed with a roll in shower, only double beds. In the past we didn't need a handicapped room, but now we needed one ant this one fell way short.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r467206481-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>467206481</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Really Great Room</t>
+  </si>
+  <si>
+    <t>I called early in the week to make the reservation. I used my debit card and was assured there would be no charges on the card and I could my preferred method of payment once we checked in. Well! we were double charged and once I saw that in the morning after...there was no clerk to talk to. the front was open with a sign stating that if you used a debit card to hold the room there would be a temporary hold on the funds and after 1-14 days the money would be refunded. I was livid! I was there for a funeral and had no money since the $300 had been taken out of my account. Fortunately the bank took care of it. Now! all that said...
+The room was excellent and clean. There was a mini kitchen that is great if travelling with kids. We selected a suite and it had the separate bedroom which is great for "snoring families" like ours! lol  Now! the bathroom was great size and but the tub was gross! The enamel was off and although I am sure it was cleaned it definitely said "Stand up and shower...don't consider sitting down".  We had an adjoining room with two queen beds that was really nice too (My Mom was with us).
+The breakfast was the usual continental breakfast but there was no one to assist if you had any problems or questions....I called early in the week to make the reservation. I used my debit card and was assured there would be no charges on the card and I could my preferred method of payment once we checked in. Well! we were double charged and once I saw that in the morning after...there was no clerk to talk to. the front was open with a sign stating that if you used a debit card to hold the room there would be a temporary hold on the funds and after 1-14 days the money would be refunded. I was livid! I was there for a funeral and had no money since the $300 had been taken out of my account. Fortunately the bank took care of it. Now! all that said...The room was excellent and clean. There was a mini kitchen that is great if travelling with kids. We selected a suite and it had the separate bedroom which is great for "snoring families" like ours! lol  Now! the bathroom was great size and but the tub was gross! The enamel was off and although I am sure it was cleaned it definitely said "Stand up and shower...don't consider sitting down".  We had an adjoining room with two queen beds that was really nice too (My Mom was with us).The breakfast was the usual continental breakfast but there was no one to assist if you had any problems or questions. It was like you were at a friends house and no one was home.I cannot comment much on the household or desk service since we only got checked in by a clerk and didn't see any employees after that. The receptionist was pleasant and professional but didn't ask if we need anything or had questions about the location which I think is important to someone travelling out of state.  It would have been nice to know about the local restaurants or if we needed shuttle service etc. Probably would stay again if I had to but would not call it a favorite and try to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I called early in the week to make the reservation. I used my debit card and was assured there would be no charges on the card and I could my preferred method of payment once we checked in. Well! we were double charged and once I saw that in the morning after...there was no clerk to talk to. the front was open with a sign stating that if you used a debit card to hold the room there would be a temporary hold on the funds and after 1-14 days the money would be refunded. I was livid! I was there for a funeral and had no money since the $300 had been taken out of my account. Fortunately the bank took care of it. Now! all that said...
+The room was excellent and clean. There was a mini kitchen that is great if travelling with kids. We selected a suite and it had the separate bedroom which is great for "snoring families" like ours! lol  Now! the bathroom was great size and but the tub was gross! The enamel was off and although I am sure it was cleaned it definitely said "Stand up and shower...don't consider sitting down".  We had an adjoining room with two queen beds that was really nice too (My Mom was with us).
+The breakfast was the usual continental breakfast but there was no one to assist if you had any problems or questions....I called early in the week to make the reservation. I used my debit card and was assured there would be no charges on the card and I could my preferred method of payment once we checked in. Well! we were double charged and once I saw that in the morning after...there was no clerk to talk to. the front was open with a sign stating that if you used a debit card to hold the room there would be a temporary hold on the funds and after 1-14 days the money would be refunded. I was livid! I was there for a funeral and had no money since the $300 had been taken out of my account. Fortunately the bank took care of it. Now! all that said...The room was excellent and clean. There was a mini kitchen that is great if travelling with kids. We selected a suite and it had the separate bedroom which is great for "snoring families" like ours! lol  Now! the bathroom was great size and but the tub was gross! The enamel was off and although I am sure it was cleaned it definitely said "Stand up and shower...don't consider sitting down".  We had an adjoining room with two queen beds that was really nice too (My Mom was with us).The breakfast was the usual continental breakfast but there was no one to assist if you had any problems or questions. It was like you were at a friends house and no one was home.I cannot comment much on the household or desk service since we only got checked in by a clerk and didn't see any employees after that. The receptionist was pleasant and professional but didn't ask if we need anything or had questions about the location which I think is important to someone travelling out of state.  It would have been nice to know about the local restaurants or if we needed shuttle service etc. Probably would stay again if I had to but would not call it a favorite and try to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r466204342-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>466204342</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>I came to Pearland for business. I chose this hotel twice now. I have chosen this hotel which met all of my required amenities. My room once again clean, food hot, and front desk very accommodating. The Pet walking area clean with pick up baggies provided.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r449786870-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>449786870</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Not as good as it used to be!</t>
+  </si>
+  <si>
+    <t>My spouse and I have stayed at this location for the holidays for the past several years.  I have, on a few occasions, given top remarks for this hotel however this year the hotel seems to have gone down hill.   I have always been extremely satisified with our room's comfort, cleaniness, and décor, but this year it was like staying in a different hotel.  Our king room (room 314) left little to be desired!    We were missing 1 of the night stand and the bed was pushed up against the wall.  I literally had to SQUEEZE into bed every night.  My husband used the other side because he requires a CPAP machine. There is one extremely, unsightly purple wall, ...YES PURPLE wall in the room with absolutely no pictures or anything else on any the walls.  Room 314 will forever be refered to  as "The Mardi Gras Suite".     We paid approx. 85.00 per night for a room that would have embarrassed Motel 6!!      And isn't there supposed to be a 2 pet max allowance??    I appreciate that LQ allows pets and it was the main reason we picked you so many years ago, but now people come in with 3-4 small dogs that bark and yap in the hallways and rooms and all hours!    Come on, LQ.  You can do better!    I think we may be choosing a different hotel this summer when we visit again.   It just isn't what...My spouse and I have stayed at this location for the holidays for the past several years.  I have, on a few occasions, given top remarks for this hotel however this year the hotel seems to have gone down hill.   I have always been extremely satisified with our room's comfort, cleaniness, and décor, but this year it was like staying in a different hotel.  Our king room (room 314) left little to be desired!    We were missing 1 of the night stand and the bed was pushed up against the wall.  I literally had to SQUEEZE into bed every night.  My husband used the other side because he requires a CPAP machine. There is one extremely, unsightly purple wall, ...YES PURPLE wall in the room with absolutely no pictures or anything else on any the walls.  Room 314 will forever be refered to  as "The Mardi Gras Suite".     We paid approx. 85.00 per night for a room that would have embarrassed Motel 6!!      And isn't there supposed to be a 2 pet max allowance??    I appreciate that LQ allows pets and it was the main reason we picked you so many years ago, but now people come in with 3-4 small dogs that bark and yap in the hallways and rooms and all hours!    Come on, LQ.  You can do better!    I think we may be choosing a different hotel this summer when we visit again.   It just isn't what it used to be!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>My spouse and I have stayed at this location for the holidays for the past several years.  I have, on a few occasions, given top remarks for this hotel however this year the hotel seems to have gone down hill.   I have always been extremely satisified with our room's comfort, cleaniness, and décor, but this year it was like staying in a different hotel.  Our king room (room 314) left little to be desired!    We were missing 1 of the night stand and the bed was pushed up against the wall.  I literally had to SQUEEZE into bed every night.  My husband used the other side because he requires a CPAP machine. There is one extremely, unsightly purple wall, ...YES PURPLE wall in the room with absolutely no pictures or anything else on any the walls.  Room 314 will forever be refered to  as "The Mardi Gras Suite".     We paid approx. 85.00 per night for a room that would have embarrassed Motel 6!!      And isn't there supposed to be a 2 pet max allowance??    I appreciate that LQ allows pets and it was the main reason we picked you so many years ago, but now people come in with 3-4 small dogs that bark and yap in the hallways and rooms and all hours!    Come on, LQ.  You can do better!    I think we may be choosing a different hotel this summer when we visit again.   It just isn't what...My spouse and I have stayed at this location for the holidays for the past several years.  I have, on a few occasions, given top remarks for this hotel however this year the hotel seems to have gone down hill.   I have always been extremely satisified with our room's comfort, cleaniness, and décor, but this year it was like staying in a different hotel.  Our king room (room 314) left little to be desired!    We were missing 1 of the night stand and the bed was pushed up against the wall.  I literally had to SQUEEZE into bed every night.  My husband used the other side because he requires a CPAP machine. There is one extremely, unsightly purple wall, ...YES PURPLE wall in the room with absolutely no pictures or anything else on any the walls.  Room 314 will forever be refered to  as "The Mardi Gras Suite".     We paid approx. 85.00 per night for a room that would have embarrassed Motel 6!!      And isn't there supposed to be a 2 pet max allowance??    I appreciate that LQ allows pets and it was the main reason we picked you so many years ago, but now people come in with 3-4 small dogs that bark and yap in the hallways and rooms and all hours!    Come on, LQ.  You can do better!    I think we may be choosing a different hotel this summer when we visit again.   It just isn't what it used to be!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r438126055-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>438126055</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Quality on Budget</t>
+  </si>
+  <si>
+    <t>Having stayed in several lq hotels this was by far the best ever. My room was clean and neat. The breakfast was a pleasant surprise.Grounds and inside building was well maintained.Lots of nearby restaurants and shopping.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r438218315-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>438218315</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>#1 Hotel in Pearland</t>
+  </si>
+  <si>
+    <t>We have stayed at other hotels in the Pearland area and we will be staying at this hotel from now forward.  The value, comfort and quiet rooms are unmatched by the other area hotels.  The rooms are clean and we never heard the baby who was staying next door.  Also when we were there we were sharing the hotel with the LSU boys and girls soccer teams and we never heard them and we go to bed early.  There was plenty to eat for breakfast and it was well attended to.  The desk staff were pleasant and helpful and the housekeepers kept our mess to a minimum.  Great staff and beautiful grounds.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at other hotels in the Pearland area and we will be staying at this hotel from now forward.  The value, comfort and quiet rooms are unmatched by the other area hotels.  The rooms are clean and we never heard the baby who was staying next door.  Also when we were there we were sharing the hotel with the LSU boys and girls soccer teams and we never heard them and we go to bed early.  There was plenty to eat for breakfast and it was well attended to.  The desk staff were pleasant and helpful and the housekeepers kept our mess to a minimum.  Great staff and beautiful grounds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r424969114-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>424969114</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>trip to Pearland</t>
+  </si>
+  <si>
+    <t>Had a wonderful nights rest at this hotel. Hotel was clean and nice. Breakfast was wonderful. Lots of choice of things to eat. Check out was very easy and fast. Hotel was marked and easy to find on Broadway Street.  Fine food and good eats with plenty of rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Vrunda B, Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Had a wonderful nights rest at this hotel. Hotel was clean and nice. Breakfast was wonderful. Lots of choice of things to eat. Check out was very easy and fast. Hotel was marked and easy to find on Broadway Street.  Fine food and good eats with plenty of rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r424342605-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>424342605</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Not Satisfied</t>
+  </si>
+  <si>
+    <t>Exterior gates to pool were not and could not be secured. Holes in bed sheets, not very friendly, poor parking, no towels by the pool and breakfast was cold, not even luke warm. We would not recommend staying here, especially if you have a trailer. You cannot go 'around' the building and the only decent places to park a trailer were marked as fire lanes.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Vrunda B, Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Exterior gates to pool were not and could not be secured. Holes in bed sheets, not very friendly, poor parking, no towels by the pool and breakfast was cold, not even luke warm. We would not recommend staying here, especially if you have a trailer. You cannot go 'around' the building and the only decent places to park a trailer were marked as fire lanes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r419491374-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>419491374</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service!!! and very nice room.</t>
+  </si>
+  <si>
+    <t>My check in was very efficient by a friendly staff member. the room was very clean I liked the fact it was near the major shopping malls in Pearland and received good advice on where I could get food. the breakfast was also better than a few other La Quinta's I have previously stayed out.I definitely will be returning on my next trip to Pearland.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vrunda B, Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>My check in was very efficient by a friendly staff member. the room was very clean I liked the fact it was near the major shopping malls in Pearland and received good advice on where I could get food. the breakfast was also better than a few other La Quinta's I have previously stayed out.I definitely will be returning on my next trip to Pearland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r411675118-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>411675118</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Pearland La Quinta</t>
+  </si>
+  <si>
+    <t>I just stayed at La Quinta in Pearland and had my first unhappy stay at La Quinta.  We came in after dark every night and the back door wouldn't work so you had to go in through the front entrance.  The front sign wasn't lit so it's hard to see the driveway on a dark busy road at night. The breakfast was pretty empty after 8 each morning. I cleaned my own coffee pot each morning and no shampoo was left in the bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>I just stayed at La Quinta in Pearland and had my first unhappy stay at La Quinta.  We came in after dark every night and the back door wouldn't work so you had to go in through the front entrance.  The front sign wasn't lit so it's hard to see the driveway on a dark busy road at night. The breakfast was pretty empty after 8 each morning. I cleaned my own coffee pot each morning and no shampoo was left in the bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r402584098-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>402584098</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>La Quinta is always a great choice, they are not expensive and are always nice. This one is no different. It's in a great location and the rooms are nicely updated. The room was nice and cold for us when we arrived and checked in. Nice touch! The front desk staff was very friendly and warm. Comfortable beds and great shower.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r398683388-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>398683388</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>We really enjoyed our Stay</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff, clean rooms beautiful landscaping. The breakfast was not as good as some of the other La Quinta Inns &amp; Suites. There was no instant hot cereal. Also could have served a better selection of fruit. The 1st day only apples and the second day apples and bananas. On a positive note, the pan sausage and egg was excellent.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r372513649-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>372513649</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Lovely Stay</t>
+  </si>
+  <si>
+    <t>This hotel is clean and tidy with very helpful attentive staff. The pool was clean and the lobby and breakfast service were also very nice. Great location in Pearland near everything we wanted to explore.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r361077112-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>361077112</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel at a Great Price</t>
+  </si>
+  <si>
+    <t>Our hotel stay was great.  The facilities were very nice and the staff was very courteous and professional.   We got a great hotel for a great price.  We'll definitely be staying here again.  We go to MD Anderson frequently and it only takes us 20 minutes to get to the facility from this hotel.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r358703768-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>358703768</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r346982732-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>346982732</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>nice place</t>
+  </si>
+  <si>
+    <t>enjoyed staying at this location.Rooms and grounds were clean.Nice fitness room.Beds comfy and room quiet.  Staff was great.Breakfast was very good. Our dog stayed with us. at no extra charge.rooms are very reasonably price.LOTS of shopping and restaurants nearby.would like to stay here again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r345685064-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>345685064</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Monster Jam Near By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We went for our yearly monster jam visit. We prefer Texas over our local one in the New Orleans Superdome.    Decided to book this hotel this year.   Didn't disappoint.  Nice.  Clean. Comfortable.   Great staff.   Can't complain.  Would definitely use this one again.  </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r347046084-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>347046084</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>My family enjoyed two nights stay .Suite was very good.Bath room was very clean.Room was very quite.Staff freindly.Breakfast was well stocked.Second night was well stocked Will stay here if we come to Pearland Texas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r330868169-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>330868169</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Week long trip to Pearland for a business convention.  I'll give the Pros first: The hotel staff is very friendly and helpful.  (2) the suite was on the 3rd floor  was huge. (3) the room was clean and had a fridge &amp; microwave. (4) The location of the hotel was perfect for our needs. (5) Hwy 518 has numerous places to shop and places to eat. Cons: Room was quite until Friday morning when a patron with a couple of barking dogs were placed across the hall from our room. (2) Breakfast needs a lot of help..food didn't seem fresh, and the same exact menu was served daily for the entire week. (3) I favor a softer mattress (4) The sofa definitely needed to be replaced (5) The toilet handled got stuck after every flush and had to be jiggled to stop the water from running.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Week long trip to Pearland for a business convention.  I'll give the Pros first: The hotel staff is very friendly and helpful.  (2) the suite was on the 3rd floor  was huge. (3) the room was clean and had a fridge &amp; microwave. (4) The location of the hotel was perfect for our needs. (5) Hwy 518 has numerous places to shop and places to eat. Cons: Room was quite until Friday morning when a patron with a couple of barking dogs were placed across the hall from our room. (2) Breakfast needs a lot of help..food didn't seem fresh, and the same exact menu was served daily for the entire week. (3) I favor a softer mattress (4) The sofa definitely needed to be replaced (5) The toilet handled got stuck after every flush and had to be jiggled to stop the water from running.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r329120286-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>329120286</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>Needs upgrade, Needs New TV.,  New furniture . Breakfast needs to be revised. Biscuits were hard and dry, not everyone likes cheese on there eggs. Best thing on menu was waffles and the sausage. We stayed at the same LaQuinta 3 years ago and it was very nice and the breakfast was very good. What Happened???</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r323617524-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>323617524</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>La Quinta Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful property, spacious rooms and excellent attentiveness from professionals. Recent business trip to Pearland Tx, decided to join La Quinta Inn Rewards and stay as a valued member at its Pearland location. Staff are so nice and hotel is so inviting I didn't mind the price at all. Property is in the center of many restaurants but the hotel also has wonderful coffee and breakfast plus has convenience foods.   </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r321065026-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>321065026</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Be Aware</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel and found it to be excellent on 2 previous stays. Recent stay was unacceptable due to upkeep, cleanliness, and in need of upgrades. If conditions improve, I would stay at this hotel again as it a good location and the price is fair, provided upgrades are done.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel and found it to be excellent on 2 previous stays. Recent stay was unacceptable due to upkeep, cleanliness, and in need of upgrades. If conditions improve, I would stay at this hotel again as it a good location and the price is fair, provided upgrades are done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r315513558-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>315513558</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>family vacay</t>
+  </si>
+  <si>
+    <t>our room, restroom,  the hotel interior and exterior were very clean, the beds were comfortable and the hotel staff was very friendly and knowledgeable about restaurants and shopping malls in area. I am glad the rooms have a mini refrigerator and microwave it was very convenient for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>our room, restroom,  the hotel interior and exterior were very clean, the beds were comfortable and the hotel staff was very friendly and knowledgeable about restaurants and shopping malls in area. I am glad the rooms have a mini refrigerator and microwave it was very convenient for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r309380115-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>309380115</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Little Square Pillows</t>
+  </si>
+  <si>
+    <t>I don't know about you, but I really dislike the little square pillows they have.  It doesn't matter if you give me 8 or 10 on the bed, there is no way to arrange them to make them feel like a real sized pillow.  I tossed and turned all night long and didn't get a good nights rest because of these little square pillows.
+Everything else about the room was fine.  Bed was comfortable (except for the little square pillows), the toilet flushed when needed, the water ran as expected with ample pressure.  The hot water was hot and the cold water was cold.  When you mixed the hot water with the cold water, a satisfying stream of warm water sprayed from the hard water stained shower head.
+The towels provided did an excellent job of wicking away the steamy moisture of the shower from my body and also doubled as a cheap intimation chamois to wipe the fog from the mirror.
+The free breakfast was given a look and only a look.  Nothing there for me except for a cup of what was labeled Maxwell House coffee from the coffee machine that dispenses hot water with a little coffee concentrate mixed in for good measure.
+To sum up, this hotel was close to a friend whom I hadn't seen in a while and was rated here as the #2 hotel in Pearland.  I might stay again but probably will...I don't know about you, but I really dislike the little square pillows they have.  It doesn't matter if you give me 8 or 10 on the bed, there is no way to arrange them to make them feel like a real sized pillow.  I tossed and turned all night long and didn't get a good nights rest because of these little square pillows.Everything else about the room was fine.  Bed was comfortable (except for the little square pillows), the toilet flushed when needed, the water ran as expected with ample pressure.  The hot water was hot and the cold water was cold.  When you mixed the hot water with the cold water, a satisfying stream of warm water sprayed from the hard water stained shower head.The towels provided did an excellent job of wicking away the steamy moisture of the shower from my body and also doubled as a cheap intimation chamois to wipe the fog from the mirror.The free breakfast was given a look and only a look.  Nothing there for me except for a cup of what was labeled Maxwell House coffee from the coffee machine that dispenses hot water with a little coffee concentrate mixed in for good measure.To sum up, this hotel was close to a friend whom I hadn't seen in a while and was rated here as the #2 hotel in Pearland.  I might stay again but probably will try the hotel across the street next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>I don't know about you, but I really dislike the little square pillows they have.  It doesn't matter if you give me 8 or 10 on the bed, there is no way to arrange them to make them feel like a real sized pillow.  I tossed and turned all night long and didn't get a good nights rest because of these little square pillows.
+Everything else about the room was fine.  Bed was comfortable (except for the little square pillows), the toilet flushed when needed, the water ran as expected with ample pressure.  The hot water was hot and the cold water was cold.  When you mixed the hot water with the cold water, a satisfying stream of warm water sprayed from the hard water stained shower head.
+The towels provided did an excellent job of wicking away the steamy moisture of the shower from my body and also doubled as a cheap intimation chamois to wipe the fog from the mirror.
+The free breakfast was given a look and only a look.  Nothing there for me except for a cup of what was labeled Maxwell House coffee from the coffee machine that dispenses hot water with a little coffee concentrate mixed in for good measure.
+To sum up, this hotel was close to a friend whom I hadn't seen in a while and was rated here as the #2 hotel in Pearland.  I might stay again but probably will...I don't know about you, but I really dislike the little square pillows they have.  It doesn't matter if you give me 8 or 10 on the bed, there is no way to arrange them to make them feel like a real sized pillow.  I tossed and turned all night long and didn't get a good nights rest because of these little square pillows.Everything else about the room was fine.  Bed was comfortable (except for the little square pillows), the toilet flushed when needed, the water ran as expected with ample pressure.  The hot water was hot and the cold water was cold.  When you mixed the hot water with the cold water, a satisfying stream of warm water sprayed from the hard water stained shower head.The towels provided did an excellent job of wicking away the steamy moisture of the shower from my body and also doubled as a cheap intimation chamois to wipe the fog from the mirror.The free breakfast was given a look and only a look.  Nothing there for me except for a cup of what was labeled Maxwell House coffee from the coffee machine that dispenses hot water with a little coffee concentrate mixed in for good measure.To sum up, this hotel was close to a friend whom I hadn't seen in a while and was rated here as the #2 hotel in Pearland.  I might stay again but probably will try the hotel across the street next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r304658881-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>304658881</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Excellent LaQuinta!</t>
+  </si>
+  <si>
+    <t>We travel a lot and always stay at LaQuinta because of their pet policy. The Pearland LaQuinta was very clean, has a tasty breakfast, and the staff is ever so friendly and helpful. The pool area is always clean and a great spot to sit outside and relax.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>We travel a lot and always stay at LaQuinta because of their pet policy. The Pearland LaQuinta was very clean, has a tasty breakfast, and the staff is ever so friendly and helpful. The pool area is always clean and a great spot to sit outside and relax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r296514749-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>296514749</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>The Hotel was better this time around than the last time we stayed there. The service was great and looks better than it did from back in March. Pool and hot tub need to be cleaned more often and the hot tube needs a new sealer on the cement.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The Hotel was better this time around than the last time we stayed there. The service was great and looks better than it did from back in March. Pool and hot tub need to be cleaned more often and the hot tube needs a new sealer on the cement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r293763739-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>293763739</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance Competition </t>
+  </si>
+  <si>
+    <t>We stayed here for a dance competition weekend. We had a great two night stay. The beds were comfy. There was no disruption from other guests, so it was quiet too. This location is bright and clean. The food was great for breakfast. I would highly recommend this location. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We stayed here for a dance competition weekend. We had a great two night stay. The beds were comfy. There was no disruption from other guests, so it was quiet too. This location is bright and clean. The food was great for breakfast. I would highly recommend this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r290609664-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>290609664</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Business trip to Pearland Texas</t>
+  </si>
+  <si>
+    <t>The hotel was very nice.  Rooms clean and spacious.  Large desk area for working.  Exercise room needed some dumbbells.  Breakfast was very good with a lot of selections.  The pool area was clean including the water.  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was very nice.  Rooms clean and spacious.  Large desk area for working.  Exercise room needed some dumbbells.  Breakfast was very good with a lot of selections.  The pool area was clean including the water.  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r289730741-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>289730741</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Great room</t>
+  </si>
+  <si>
+    <t>Our recent stay at the La Quinta in Pearland Texas was very pleasurable. The room was at a great temperature as soon as we walked in and the hotel had a very fresh smell to it. My only complaints were that the WiFi was a hit or miss and was very slow and the breakfast was only from 6-9am.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our recent stay at the La Quinta in Pearland Texas was very pleasurable. The room was at a great temperature as soon as we walked in and the hotel had a very fresh smell to it. My only complaints were that the WiFi was a hit or miss and was very slow and the breakfast was only from 6-9am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r284863851-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>284863851</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>I've stay here often and the customer service is great! Kuddos to a job well done! If I have a problem Sylvia goes far and beyond to reach a solution, she's a great asset to your company. Thanks for always making me feel at HOME!MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>I've stay here often and the customer service is great! Kuddos to a job well done! If I have a problem Sylvia goes far and beyond to reach a solution, she's a great asset to your company. Thanks for always making me feel at HOME!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r278910284-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>278910284</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Clean Pet Friendly Accomodations</t>
+  </si>
+  <si>
+    <t>The room was clean and well maintained.  The bedding was great.  Room size was large with temperature controlled air conditioning.  The bathroom was a good size with a tub and shower combo.  The only draw back is you cannot leave your animals in the room unattended even if they are in their crate so if you plan to leave your pet for a period of time this hotel is not for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>The room was clean and well maintained.  The bedding was great.  Room size was large with temperature controlled air conditioning.  The bathroom was a good size with a tub and shower combo.  The only draw back is you cannot leave your animals in the room unattended even if they are in their crate so if you plan to leave your pet for a period of time this hotel is not for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r277386371-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>277386371</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Sylvia was GREAT</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 nights.  Sylvia was the BEST!!  She's so awesome.  The hotel was clean and the room and bed were comfy!  They need to expand the "pantry" to include forgotten things and Milk!!  I didn't enjoy the breakfast but I'm sure it was good!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 nights.  Sylvia was the BEST!!  She's so awesome.  The hotel was clean and the room and bed were comfy!  They need to expand the "pantry" to include forgotten things and Milk!!  I didn't enjoy the breakfast but I'm sure it was good!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r277437694-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>277437694</t>
+  </si>
+  <si>
+    <t>Girl's Weekend in Pearland</t>
+  </si>
+  <si>
+    <t>My sister, two cousins and I stayed at the LaQuinta Inns &amp; Suites Pearland, and had an awesome hotel experience. Located near lots of good restaurants and shopping, the grounds and facility was clean, room was really nice, breakfast was on point, pool/jacuzzi was clean...an overall great time. See ya same time next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>My sister, two cousins and I stayed at the LaQuinta Inns &amp; Suites Pearland, and had an awesome hotel experience. Located near lots of good restaurants and shopping, the grounds and facility was clean, room was really nice, breakfast was on point, pool/jacuzzi was clean...an overall great time. See ya same time next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r265033744-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>265033744</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay. Facilities were  clean, fresh smelling and staff was friendly and  accommodating. The best part was the daily baked free cookies.  Close to Houston city and near all shopping .MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>LaQuintaPearland, General Manager at La Quinta Inn &amp; Suites Pearland, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay. Facilities were  clean, fresh smelling and staff was friendly and  accommodating. The best part was the daily baked free cookies.  Close to Houston city and near all shopping .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r263009257-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>263009257</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Clean and well kept</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my dogs. The room was immaculate. All parking was close to a door so it was an easy job lugging things to the room. The vending machines and ice machines worked and there was a laundry room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r261537486-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>261537486</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Like walking into a wall of stinky cleaning solvent</t>
+  </si>
+  <si>
+    <t>My husband and I arrived at the La Quinta Inn after 10 PM.  The check in was fast and efficient.  We were given our room keys and noticed a smell wafting along the hallway.  When we opened the door of the room, it was like walking into a wall of perfumed stench-- like someone had dropped a whole bottle of whatever they use to cover smells-- and who knows what they were trying to cover?  You could taste it in your mouth, it was so thick. We opened the door, ran the bathroom fan and the air conditioner, thinking we could clear the air, but it didn't work.  We called the front desk to see if we could be moved, but the hotel (like most hotels in Houston that weekend) was full.  We slept with the bathroom fan on (and the light, unfortunately) and air conditioner running on full, and still needed to keep our covers over our faces to filter the stench.  I woke with a sore throat and spent the day coughing up perfume.  We found another hotel and checked out the next morning, two days early.   The bed was fine and the room was otherwise clean though the towels were worn out and trailing threads, the bathroom sink was not draining, and the internet was not working in our room.  I spoke to the manager of the hotel, who was apologetic and refunded a small part of...My husband and I arrived at the La Quinta Inn after 10 PM.  The check in was fast and efficient.  We were given our room keys and noticed a smell wafting along the hallway.  When we opened the door of the room, it was like walking into a wall of perfumed stench-- like someone had dropped a whole bottle of whatever they use to cover smells-- and who knows what they were trying to cover?  You could taste it in your mouth, it was so thick. We opened the door, ran the bathroom fan and the air conditioner, thinking we could clear the air, but it didn't work.  We called the front desk to see if we could be moved, but the hotel (like most hotels in Houston that weekend) was full.  We slept with the bathroom fan on (and the light, unfortunately) and air conditioner running on full, and still needed to keep our covers over our faces to filter the stench.  I woke with a sore throat and spent the day coughing up perfume.  We found another hotel and checked out the next morning, two days early.   The bed was fine and the room was otherwise clean though the towels were worn out and trailing threads, the bathroom sink was not draining, and the internet was not working in our room.  I spoke to the manager of the hotel, who was apologetic and refunded a small part of our bill.  I really hope the rest of the hotel justified the high reviews on tripadvisor that caused me to book this room, but I'll never chance it again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I arrived at the La Quinta Inn after 10 PM.  The check in was fast and efficient.  We were given our room keys and noticed a smell wafting along the hallway.  When we opened the door of the room, it was like walking into a wall of perfumed stench-- like someone had dropped a whole bottle of whatever they use to cover smells-- and who knows what they were trying to cover?  You could taste it in your mouth, it was so thick. We opened the door, ran the bathroom fan and the air conditioner, thinking we could clear the air, but it didn't work.  We called the front desk to see if we could be moved, but the hotel (like most hotels in Houston that weekend) was full.  We slept with the bathroom fan on (and the light, unfortunately) and air conditioner running on full, and still needed to keep our covers over our faces to filter the stench.  I woke with a sore throat and spent the day coughing up perfume.  We found another hotel and checked out the next morning, two days early.   The bed was fine and the room was otherwise clean though the towels were worn out and trailing threads, the bathroom sink was not draining, and the internet was not working in our room.  I spoke to the manager of the hotel, who was apologetic and refunded a small part of...My husband and I arrived at the La Quinta Inn after 10 PM.  The check in was fast and efficient.  We were given our room keys and noticed a smell wafting along the hallway.  When we opened the door of the room, it was like walking into a wall of perfumed stench-- like someone had dropped a whole bottle of whatever they use to cover smells-- and who knows what they were trying to cover?  You could taste it in your mouth, it was so thick. We opened the door, ran the bathroom fan and the air conditioner, thinking we could clear the air, but it didn't work.  We called the front desk to see if we could be moved, but the hotel (like most hotels in Houston that weekend) was full.  We slept with the bathroom fan on (and the light, unfortunately) and air conditioner running on full, and still needed to keep our covers over our faces to filter the stench.  I woke with a sore throat and spent the day coughing up perfume.  We found another hotel and checked out the next morning, two days early.   The bed was fine and the room was otherwise clean though the towels were worn out and trailing threads, the bathroom sink was not draining, and the internet was not working in our room.  I spoke to the manager of the hotel, who was apologetic and refunded a small part of our bill.  I really hope the rest of the hotel justified the high reviews on tripadvisor that caused me to book this room, but I'll never chance it again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r251392722-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>251392722</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Comfy and Clean!</t>
+  </si>
+  <si>
+    <t>The hotel was very comfortable, clean and easy to access. I got a great rate with my AARP discount too!  It is also pet friendly and accommodated my small dog.    I would definitely recommend it and will be back when I'm in the Houston area.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r250287707-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>250287707</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>LaQ</t>
+  </si>
+  <si>
+    <t>Good accessibility to NRG Stadium and Facilities, Very good property for condition, cleanliness, and personnel.  xyz  abc xyz abc xyz abc abcxfhg fjfh fhyd nndnd cmmfg dmndjcc mjjcdnnc ffkkcndhj djijhfvn jdhis</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r249535622-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>249535622</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>EXCELLENT REVIEW</t>
+  </si>
+  <si>
+    <t>everything regarding out stay at la quinta on 1/2/2015 was percent. We have no complaints. The hotel as a whole was super clean outside as well as inside.The breakfast was outstanding and the price was right.MoreShow less</t>
+  </si>
+  <si>
+    <t>everything regarding out stay at la quinta on 1/2/2015 was percent. We have no complaints. The hotel as a whole was super clean outside as well as inside.The breakfast was outstanding and the price was right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r237216597-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>237216597</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Caring Staff</t>
+  </si>
+  <si>
+    <t>We stayed at this location one night and they were so kind as to call and verify our reservation as we were a late arrival. We had planned to stay elsewhere the 2nd night and last minute made another reservation at the same hotel. They again called concerned that there was an error in booking and we were booked for 2 rooms erroneously. Caring friendly staff. Great location with access to numerous restaurants and stores. Will encourage friends/family to stay there as well.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r235987469-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>235987469</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Free breakfast in the morning, which was great. Located on a busy street (don't plan on walking to food/shops). Pool was great, hot tub was a little green. WiFi served it's purpose but was slow at times. Staff was friendly and hotel was very clean. Worth the value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r230979384-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>230979384</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Can't miss</t>
+  </si>
+  <si>
+    <t>La Quinta Inns are a good value for the money. Breakfast selection is good, room was clean, bed was comfortable, staff was polite and courteous.  The remodel construction was complete since our last stay a couple of months ago, looks really nice. In my honest opinion, the bed was more comfortable than most Choice Privilege hotels I have stayed in in Pearland. La Quinta has an advantage on the in this department. Give them a try next time you are away from home and need a place to stay!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r220256666-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>220256666</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Excellent place, Exceptional Manager!</t>
+  </si>
+  <si>
+    <t>We had a very pleasant night's stay.  Room clean and quiet.  Freda Shultz went above and beyond to accomodate our needs, making personal sacrifice to do so.  Thank you so much and we will stay again if ever in the area.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r217369164-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>217369164</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Pet Friendly Hotel Vacation</t>
+  </si>
+  <si>
+    <t>The hotel accept pets but doesn't have any activities for them.  Also the breakfast does'nt have any variety, all days is the same options.  During all my stay, I can't use the pool due the poor maintenance, water was green and cloudy.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r213678993-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>213678993</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Decent Hotel in a Great Area!</t>
+  </si>
+  <si>
+    <t>Decided to stay here on very short notice for a trip to Galveston, and did not regret my decision at all. The hotel is in a busier part of Pearland with multiple grocery, gas, shopping and food choices at the ready. When I arrived in Pearland it was about three hours earlier than the check-in time, I went and talked to Claudia at the front desk. She was super sweet about me checking in early and even helped get the door to unlock. (It was a little bit different than other La Quintas I have stayed at in the past.) For the room itself, it was large with tall ceilings and was also kept very tidy. The only negative things about the room is that some of the furniture is starting to show it's age, and the shower area could use a nice scrub where the wall meets the bathtub. Didn't get to use the pool or gym area but both looked very nice. Breakfast was pretty good with a decent variety of choices, and I loved the Texas shaped waffles. This hotel is also experiencing some renovations but those didn't interfere with my stay at all. I don't think I will return to this hotel for my next Galveston visit as the hotel is an hour away, but I will return if I need a place to stay near Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Decided to stay here on very short notice for a trip to Galveston, and did not regret my decision at all. The hotel is in a busier part of Pearland with multiple grocery, gas, shopping and food choices at the ready. When I arrived in Pearland it was about three hours earlier than the check-in time, I went and talked to Claudia at the front desk. She was super sweet about me checking in early and even helped get the door to unlock. (It was a little bit different than other La Quintas I have stayed at in the past.) For the room itself, it was large with tall ceilings and was also kept very tidy. The only negative things about the room is that some of the furniture is starting to show it's age, and the shower area could use a nice scrub where the wall meets the bathtub. Didn't get to use the pool or gym area but both looked very nice. Breakfast was pretty good with a decent variety of choices, and I loved the Texas shaped waffles. This hotel is also experiencing some renovations but those didn't interfere with my stay at all. I don't think I will return to this hotel for my next Galveston visit as the hotel is an hour away, but I will return if I need a place to stay near Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r209838776-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>209838776</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Clean and Friendly</t>
+  </si>
+  <si>
+    <t>Everyone we met here was very nice. The rooms were clean and impressive. The morning breakfast was great - with texas shaped waffles and all kinds of other things. Good coffee as well. There are all kinds of restaurants and shopping nearby, so it's easy to grab something you may have forgotten to bring.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r209139538-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>209139538</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Not the worst, not the best</t>
+  </si>
+  <si>
+    <t>Stayed here for my nieces graduation. Staff was friendly and helpful.   Rooms were nice.  Not much of a view because there isnt anything to view.  Pool and hot tub area were nice and clean.  Beds were comfortable.  Hot breakfast area a plus!!  Construction going on but didnt hear anything to negatively effect our stay.  In room microwave and fridge.  DirecTV service in rooms.  WiFi was less than adequate!!! Very slow.  Hard to connect to sometimes.  they say its only meant for checking email, not web surfing, and definitely not streaming any videos!  Location was good for us as it was across from y families housing development!  Would look for someplace else to stay next time with better Wifi service personally though.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for my nieces graduation. Staff was friendly and helpful.   Rooms were nice.  Not much of a view because there isnt anything to view.  Pool and hot tub area were nice and clean.  Beds were comfortable.  Hot breakfast area a plus!!  Construction going on but didnt hear anything to negatively effect our stay.  In room microwave and fridge.  DirecTV service in rooms.  WiFi was less than adequate!!! Very slow.  Hard to connect to sometimes.  they say its only meant for checking email, not web surfing, and definitely not streaming any videos!  Location was good for us as it was across from y families housing development!  Would look for someplace else to stay next time with better Wifi service personally though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r209225258-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>209225258</t>
+  </si>
+  <si>
+    <t>We really liked this hotel, the staff was very friendly and took great care of us.    We has some noisy neighbors in the room next to ours and when I reported it to the front desk they took care of it immediately and we didn't hear another sound from the next room all night.  If you like great BBQ, try the place across the street from the hotel, I recommend the ribs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r206994478-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>206994478</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Lots of good, but also lots of bad</t>
+  </si>
+  <si>
+    <t>This La Quinta is very nice.  It does appear to be newer so perhaps some of my suggestions are things they can consider.  
+We requested a room upper floor and away from elevator and this request was easily honored.  The room is nicely appointed - we had a king bed with a refrigerator and microwave.  An issue with all hotels, not just La Quinta, is that there needs to be better lighting.  Three-way bulbs are most expensive but do give lots more light than the typical bulbs used in most hotels.  We have timeshares and they use the three-way bulbs which is really very nice.  As we are in our 50s and 60s, we are needed more light for reading.  Being in a hotel room with inadequate lighting is the biggest problem we tend to have.  Bedding is also usually an issue.  Bedding needs to be breathable stuff and most hotels tend to have very fluffy and thick comforters or duvets that are far too heavy.  The duvet on this bed was very pretty but very slippery and tended to slide off of the bed.  It was also far too heavy for sleeping.  Taking the duvet off the bed meant that we literally froze during sleep. 
+Which brings me to my biggest gripe about this hotel and the worse idea yet ever by any hotel:  the air conditioning.  The air conditioner in the room was a window unit that was...This La Quinta is very nice.  It does appear to be newer so perhaps some of my suggestions are things they can consider.  We requested a room upper floor and away from elevator and this request was easily honored.  The room is nicely appointed - we had a king bed with a refrigerator and microwave.  An issue with all hotels, not just La Quinta, is that there needs to be better lighting.  Three-way bulbs are most expensive but do give lots more light than the typical bulbs used in most hotels.  We have timeshares and they use the three-way bulbs which is really very nice.  As we are in our 50s and 60s, we are needed more light for reading.  Being in a hotel room with inadequate lighting is the biggest problem we tend to have.  Bedding is also usually an issue.  Bedding needs to be breathable stuff and most hotels tend to have very fluffy and thick comforters or duvets that are far too heavy.  The duvet on this bed was very pretty but very slippery and tended to slide off of the bed.  It was also far too heavy for sleeping.  Taking the duvet off the bed meant that we literally froze during sleep. Which brings me to my biggest gripe about this hotel and the worse idea yet ever by any hotel:  the air conditioning.  The air conditioner in the room was a window unit that was adjusted by a thermostat on the wall.  The thermostat had 3 options:  Cool, hot, off.  Although you could raise or lower the temp in numerical degrees, there was NO levels for the fan (such as high, medium, or low to adjust the amount of cooling or heating being blown) so basically when the unit was on COOL, the room was FREEZING and when it was off it was hot. You could put it on 72 but it was still blowing very strongly - much too strong for the size of the room.  Raising the temp just meant the air blown was warmer but it still blew very strongly.  (Hope this makes sense.) I imaging fixing all the units so that there are varying FAN LEVELS (such as high, medium, low) would be a major undertaking but I strongly urge the hotel to do it.  I cannot imagine who was the designer or decision maker to put thermostats in small hotel rooms that merely have ON and OFF without allowing for variations in between.  Horrible horrible.  Be warned that the A/C is extremely COLD when on but when you turn it off, the room becomes very warm.  It is TEXAS!Another issue is that this hotel allows pets.  Although we do not have pets, I am a pet lover so I think it is great.  But we had a couple next to us with 2 very yappy dogs.  The dogs and their owners thought it was perfectly okay to have a play session with the dogs at 3:30am which had the dogs running around and yapping and owners talking very loudly like it was the middle of the day.  Perhaps the hotel can assign all the pet rooms to one side of the hotel instead of putting them next to people without pets who may enjoy sleeping throughout the night.  These dogs were also very whiney and yappy whenever anyone passed the room in the hallway which we had to do to get to our room so the dogs would begin their litany of yaps and whines for a long time when the owners were out of the room.  At 5:15am the fire alarm went off which was apparently due to someone using a flat or curling iron on their hair and it getting too hot.  It awakened us and we immediately began to prepare to evacute but the alarm went off after maybe a minute or so.  I know this is not the fault of the hotel in any way but with the dogs yapping the night before and awakening us, it meant that 2 of the 4 nights there our sleep was disturbed.  One morning at 7am, the one morning when we could actually sleep in, the dogs next door began their whining and yapping so pretty much the only good night we had was the last night when we were there as the dogs owners next to us had checked out.  I did complain at the front desk and they said they would give them a complimentary call to ask them to keep the dogs quiet.  Not sure if that happened or not.  But if you are going to allow dogs in your hotel, you should put them all on one floor or all in one wing so it does not inconvenience us non-pet owners.The breakfast as nice.  The waffles make the shape of Texas which was a nice treat.  Standard faire as far as muffins, cereal, yogurts, toast, etc.  We did like that they had USA Todays in the lobby for their guests.  Someone mentioned complimentary bottles of water but we did not get any or know anything about it.  But we did get one of the complimentary cookies.  The gym room is nice and there is a pool which was closed the first 2 days we were there.  The location of this La Quiinta was great for getting to Houston or points south or just about anywhere.  It was close to lots of shipping and groceries.  There are no sidewalks for going out and just taking a walk though.  The hotel staff are all super and very friendly.We added on an additional night to our stay which was priced much lower than the rate we had for our reservation (which we made many months in advanve) so it makes me wonder if we should just recheck prices a few days before arriving.  As you can see there are lots of good but also lots of bad with the biggest problem for me being the A/C creating a FREEZING COLD room. Just sitting around watching TV meant we had to put on sweaters or get under the covers.  The blanket slipped off the bed continuously so that really is an issue as well.  I would stay here again if I found out they replaced the blankets with ones that are breathable and do not slip off the beds and also if the A/C thermostats had settings for the FAN levels - even just high and low (ideal is high, medium and low)....  I sincerely hope someone at La Quinta reads these reviews.  Since they don't seem to reply to any of the other comments as many other hotel management does - it's hard to know if they are interested or care enough to know what their guests have to say.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>This La Quinta is very nice.  It does appear to be newer so perhaps some of my suggestions are things they can consider.  
+We requested a room upper floor and away from elevator and this request was easily honored.  The room is nicely appointed - we had a king bed with a refrigerator and microwave.  An issue with all hotels, not just La Quinta, is that there needs to be better lighting.  Three-way bulbs are most expensive but do give lots more light than the typical bulbs used in most hotels.  We have timeshares and they use the three-way bulbs which is really very nice.  As we are in our 50s and 60s, we are needed more light for reading.  Being in a hotel room with inadequate lighting is the biggest problem we tend to have.  Bedding is also usually an issue.  Bedding needs to be breathable stuff and most hotels tend to have very fluffy and thick comforters or duvets that are far too heavy.  The duvet on this bed was very pretty but very slippery and tended to slide off of the bed.  It was also far too heavy for sleeping.  Taking the duvet off the bed meant that we literally froze during sleep. 
+Which brings me to my biggest gripe about this hotel and the worse idea yet ever by any hotel:  the air conditioning.  The air conditioner in the room was a window unit that was...This La Quinta is very nice.  It does appear to be newer so perhaps some of my suggestions are things they can consider.  We requested a room upper floor and away from elevator and this request was easily honored.  The room is nicely appointed - we had a king bed with a refrigerator and microwave.  An issue with all hotels, not just La Quinta, is that there needs to be better lighting.  Three-way bulbs are most expensive but do give lots more light than the typical bulbs used in most hotels.  We have timeshares and they use the three-way bulbs which is really very nice.  As we are in our 50s and 60s, we are needed more light for reading.  Being in a hotel room with inadequate lighting is the biggest problem we tend to have.  Bedding is also usually an issue.  Bedding needs to be breathable stuff and most hotels tend to have very fluffy and thick comforters or duvets that are far too heavy.  The duvet on this bed was very pretty but very slippery and tended to slide off of the bed.  It was also far too heavy for sleeping.  Taking the duvet off the bed meant that we literally froze during sleep. Which brings me to my biggest gripe about this hotel and the worse idea yet ever by any hotel:  the air conditioning.  The air conditioner in the room was a window unit that was adjusted by a thermostat on the wall.  The thermostat had 3 options:  Cool, hot, off.  Although you could raise or lower the temp in numerical degrees, there was NO levels for the fan (such as high, medium, or low to adjust the amount of cooling or heating being blown) so basically when the unit was on COOL, the room was FREEZING and when it was off it was hot. You could put it on 72 but it was still blowing very strongly - much too strong for the size of the room.  Raising the temp just meant the air blown was warmer but it still blew very strongly.  (Hope this makes sense.) I imaging fixing all the units so that there are varying FAN LEVELS (such as high, medium, low) would be a major undertaking but I strongly urge the hotel to do it.  I cannot imagine who was the designer or decision maker to put thermostats in small hotel rooms that merely have ON and OFF without allowing for variations in between.  Horrible horrible.  Be warned that the A/C is extremely COLD when on but when you turn it off, the room becomes very warm.  It is TEXAS!Another issue is that this hotel allows pets.  Although we do not have pets, I am a pet lover so I think it is great.  But we had a couple next to us with 2 very yappy dogs.  The dogs and their owners thought it was perfectly okay to have a play session with the dogs at 3:30am which had the dogs running around and yapping and owners talking very loudly like it was the middle of the day.  Perhaps the hotel can assign all the pet rooms to one side of the hotel instead of putting them next to people without pets who may enjoy sleeping throughout the night.  These dogs were also very whiney and yappy whenever anyone passed the room in the hallway which we had to do to get to our room so the dogs would begin their litany of yaps and whines for a long time when the owners were out of the room.  At 5:15am the fire alarm went off which was apparently due to someone using a flat or curling iron on their hair and it getting too hot.  It awakened us and we immediately began to prepare to evacute but the alarm went off after maybe a minute or so.  I know this is not the fault of the hotel in any way but with the dogs yapping the night before and awakening us, it meant that 2 of the 4 nights there our sleep was disturbed.  One morning at 7am, the one morning when we could actually sleep in, the dogs next door began their whining and yapping so pretty much the only good night we had was the last night when we were there as the dogs owners next to us had checked out.  I did complain at the front desk and they said they would give them a complimentary call to ask them to keep the dogs quiet.  Not sure if that happened or not.  But if you are going to allow dogs in your hotel, you should put them all on one floor or all in one wing so it does not inconvenience us non-pet owners.The breakfast as nice.  The waffles make the shape of Texas which was a nice treat.  Standard faire as far as muffins, cereal, yogurts, toast, etc.  We did like that they had USA Todays in the lobby for their guests.  Someone mentioned complimentary bottles of water but we did not get any or know anything about it.  But we did get one of the complimentary cookies.  The gym room is nice and there is a pool which was closed the first 2 days we were there.  The location of this La Quiinta was great for getting to Houston or points south or just about anywhere.  It was close to lots of shipping and groceries.  There are no sidewalks for going out and just taking a walk though.  The hotel staff are all super and very friendly.We added on an additional night to our stay which was priced much lower than the rate we had for our reservation (which we made many months in advanve) so it makes me wonder if we should just recheck prices a few days before arriving.  As you can see there are lots of good but also lots of bad with the biggest problem for me being the A/C creating a FREEZING COLD room. Just sitting around watching TV meant we had to put on sweaters or get under the covers.  The blanket slipped off the bed continuously so that really is an issue as well.  I would stay here again if I found out they replaced the blankets with ones that are breathable and do not slip off the beds and also if the A/C thermostats had settings for the FAN levels - even just high and low (ideal is high, medium and low)....  I sincerely hope someone at La Quinta reads these reviews.  Since they don't seem to reply to any of the other comments as many other hotel management does - it's hard to know if they are interested or care enough to know what their guests have to say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r206491442-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>206491442</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I usually don't stay at La Quinta because I've had some bad experiences in the past, but this place was a very nice surprise. This stay was on short notice so the prices weren't great, but it was a very nice room in a nice hotel overall. The free breakfast was typical for these types of places but it was plentiful and fresh and well-maintained.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r203651416-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>203651416</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Great hotel, great price and great location</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for the month of March and part of April with great service. The staff work very hard to make sure your stay is as comfortable as possible. Lots of stores and restaurants near by as well.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r198227465-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>198227465</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I stayed twice over a week during the Houston rodeo. The hotel is relatively new and I stayed on the 3rd floor. The front desk are very nice and friendly.  The room was medium size and clean with the basic amenities.  The bathroom is clean and well stocked with toiletries. The bed was a king size with comfortable mattress. The morning buffet was decent with eggs, sausages, biscuits, waffles, Danish,  not the continental breakfast like some other chains. I liked and I plan to stay whenever I am there for Rodeos as it is only about 15 minutes drive</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r197542747-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>197542747</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Clean Room</t>
+  </si>
+  <si>
+    <t>My family stayed at the Pearland La Quinta while scouting out houses in the area. Our two room suite was spacious and clean. We enjoyed having two televisions and room to spread out. Our only problem was that the sofa bed mattress was a bit thin for our son. It would have been very uncomfortable for an adult. The breakfast area was clean and well maintained. The front desk attendant was very friendly and helpful during check-in.We will return again as it is convenient to restaurants and is clean.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r194508087-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>194508087</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r191425856-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>191425856</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Great Stay for the Price!</t>
+  </si>
+  <si>
+    <t>New and very comfortable hotel with all the basic amenities. The breakfast is not gourmet, but has plenty of variety, including sausage, eggs, warm biscuits and waffles.  Our room was decent sized; and the bathroom was clean and well stocked with toiletries and plenty of towels.  Just two small observations about the bathroom... low water pressure and our bathroom floor was cleaned, I think, with some sort of cleaner that left the floor sticky.   The beds were very comfortable; the temperature was easy to maintain at a comfortable level. Having a small refrigerator and a microwave in the room was a real plus.  The staff at the hotel was very friendly and cookies at the front desk in the evening are a nice treat.  The parking lot was clean and well-lit.  Overall, a great room for a decent price.MoreShow less</t>
+  </si>
+  <si>
+    <t>New and very comfortable hotel with all the basic amenities. The breakfast is not gourmet, but has plenty of variety, including sausage, eggs, warm biscuits and waffles.  Our room was decent sized; and the bathroom was clean and well stocked with toiletries and plenty of towels.  Just two small observations about the bathroom... low water pressure and our bathroom floor was cleaned, I think, with some sort of cleaner that left the floor sticky.   The beds were very comfortable; the temperature was easy to maintain at a comfortable level. Having a small refrigerator and a microwave in the room was a real plus.  The staff at the hotel was very friendly and cookies at the front desk in the evening are a nice treat.  The parking lot was clean and well-lit.  Overall, a great room for a decent price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r191227425-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>191227425</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Great Stay/Great Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location here is very convenient to almost everything....mall shopping, restaurants, fast food.....5 min from the freeway. Great location! The staff is very friendly and accommodating. We stayed here with our family and were quite pleased to find out that in addition to all the great shops around, we were 5 min from a really nice golf course.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r190085393-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>190085393</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Waking up on the bright side</t>
+  </si>
+  <si>
+    <t>Once again, La Quinta Pearland gave us an excellent service away from home especially during the holiday season. Can't compare with big named hotels nearby .... This is a lot better, friendlier and cleaner and this is our 3rd stay ....!  And this comes from my heart and from a New Yorker</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r182607410-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>182607410</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>We stayed eight nights at the Pearland location. The rooms were clean and well-stocked. The staff was friendly and helpful. The room design was excellent. A desk divided the sleeping and lounge area. It also worked well as a table. While visiting Houston, we stayed at the Beaumont and Katy, TX La Quinta locations, but the Pearland location was hands down the best of the three.It is close to shopping, great restaurants and the Houston metro area. The only thing I would change about the hotel is the low water pressure in the shower.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r180686627-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>180686627</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r180680906-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>180680906</t>
+  </si>
+  <si>
+    <t>Hotel is good but breakfast is awful</t>
+  </si>
+  <si>
+    <t>We stay at this hotel each time we visit family in the Pearland area. The hotel is very nice. It is always clean, close to restaurants and shopping and the staff is excellent. But the breakfast is one of the worse that we have encountered in our travels across the country. They serve the same thing each morning. There are no healthy options in terms of cereals and fruits. The eggs, meats and biscuits are just warm and never hot. It would be great to have a microwave in order to heat up items. Also would be nice to offer sugar free syrup like many other LaQuinta inns do for the waffles. They also do not offer splenda sweetener for coffee or tea which tastes much better than the off brand they use. We have stayed at many other LaQuinta inns and this one needs to get a lesson in breakfast prep from the one at Grants Pass in Oregon.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay at this hotel each time we visit family in the Pearland area. The hotel is very nice. It is always clean, close to restaurants and shopping and the staff is excellent. But the breakfast is one of the worse that we have encountered in our travels across the country. They serve the same thing each morning. There are no healthy options in terms of cereals and fruits. The eggs, meats and biscuits are just warm and never hot. It would be great to have a microwave in order to heat up items. Also would be nice to offer sugar free syrup like many other LaQuinta inns do for the waffles. They also do not offer splenda sweetener for coffee or tea which tastes much better than the off brand they use. We have stayed at many other LaQuinta inns and this one needs to get a lesson in breakfast prep from the one at Grants Pass in Oregon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r169346099-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>169346099</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r169139546-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>169139546</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r168326308-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>168326308</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r161612226-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>161612226</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable La Quinta as Expected</t>
+  </si>
+  <si>
+    <t>We stayed for one night as we looked over the Hosuton area.  This La Quainta was clean and comfortable, and met all expectaions of what I expect out of a La Quinta.  Stores and restuarants were close, but not too close, and the road is not a freeway, so this La Quinta is quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r161609199-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>161609199</t>
+  </si>
+  <si>
+    <t>Nice location and friendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was immediately impressed with the overall appearance of this hotel. The lobby is nicely furnished and the outside area is clean and nicely landscaped. We stayed for a week and the front desk staff were extremely accommodating, professional and polite. The location is very convenient to downtown Houston and Reliant Stadium. Not to mention that there are numerous restaurants and shopping near the hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r161174566-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>161174566</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Happy😀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, found a home away from home. Traveling to Houston every so often to visit my college girls &amp; been hotel hopping for the past 3 years even staying far. This is our 2nd stay in La Quinta  in 5 months &amp; it has been an amazing experience. We always travel around the globe &amp; cleanliness &amp; safety is very important to us. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r155774049-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>155774049</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>A Perfect Stay</t>
+  </si>
+  <si>
+    <t>You'd think that---during an eleven-day stay---the inn would screw up something. Nope. The place was fresh, clean and nice. The room was updated, with great tv, microwave and fridge. The place is 100% non-smoking. Housekeeping was prompt and thorough. When the wi-fi signal was a little weak in my room, the front desk guy handed me a DSL cable and offered to come up to the room to show me how to use it.Amenities were great, too. The workout room was well-equipped, stocked with towels and always clean. Breakfast was one of the best I've seen at any La Quinta (with hot coffee all day long). There were even fresh-baked cookies every afternoon.Altogether, a perfect stay for the business or recreational traveler!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>You'd think that---during an eleven-day stay---the inn would screw up something. Nope. The place was fresh, clean and nice. The room was updated, with great tv, microwave and fridge. The place is 100% non-smoking. Housekeeping was prompt and thorough. When the wi-fi signal was a little weak in my room, the front desk guy handed me a DSL cable and offered to come up to the room to show me how to use it.Amenities were great, too. The workout room was well-equipped, stocked with towels and always clean. Breakfast was one of the best I've seen at any La Quinta (with hot coffee all day long). There were even fresh-baked cookies every afternoon.Altogether, a perfect stay for the business or recreational traveler!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r155493214-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>155493214</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Everything was clean and nice!  The TV was new and the bed was comfy.  The bathroom was clean and well lit.  We would gladly stay again if in the area.  There are lots of restaurants and places to shop nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r155240245-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>155240245</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Very New and Clean,Quiet</t>
+  </si>
+  <si>
+    <t>It was very clean and quiet.  We were at south end of second floor.  Free hot breakfast and coffee.  Front desk was VERY polite.   A very good choice to stay here!  The parking lot is a bit small but well lighted.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r145607587-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>145607587</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Very noisy place to stay</t>
+  </si>
+  <si>
+    <t>I have stayed here many times. The staff is friendly, the rooms clean. Beds are comfy. The building seems cheaply built, you can rattle the door lock boxes, fixtures seem less than well attached as well.The breakfast is not high quality, probably the worst of these type chains. They used to have someone responsible for the breakfast, now the desk clerk has to do that. So there are times, when the desk is busy, that the breakfast area runs short of items.The worst is the noise! There seems to be no wall insulation; more than once I have clearly heard lovers in action next door. Pets are allowed, and I have heard dogs barking loudly down the hall after being left in the room alone. Clients seem to like letting doors slam behind them all night long, and the noise just echoes into the nearby rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I have stayed here many times. The staff is friendly, the rooms clean. Beds are comfy. The building seems cheaply built, you can rattle the door lock boxes, fixtures seem less than well attached as well.The breakfast is not high quality, probably the worst of these type chains. They used to have someone responsible for the breakfast, now the desk clerk has to do that. So there are times, when the desk is busy, that the breakfast area runs short of items.The worst is the noise! There seems to be no wall insulation; more than once I have clearly heard lovers in action next door. Pets are allowed, and I have heard dogs barking loudly down the hall after being left in the room alone. Clients seem to like letting doors slam behind them all night long, and the noise just echoes into the nearby rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r143794364-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>143794364</t>
+  </si>
+  <si>
+    <t>10/26/2012</t>
+  </si>
+  <si>
+    <t>Gorgeous</t>
+  </si>
+  <si>
+    <t>A beautiful, comfortable newer hotel located near to the freeway, across from a huge shopping center.  We slept beautifully this night, and had zero problems.  There are several good restaurants across the street.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r143366524-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>143366524</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r135417202-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>135417202</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r133536442-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>133536442</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r133465300-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>133465300</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>best front desk help ever</t>
+  </si>
+  <si>
+    <t>I arrived very eary due to being rained out, the front destk gentleman immediately worked on getting me and my wife a nice room. great service.  thanks la quinta</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r129619474-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>129619474</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>It is the staff, not the la quinta hotel itself...</t>
+  </si>
+  <si>
+    <t>My husband and I only stay at La Quinta hotels, because we have two dogs.  We travel so much, that I even got the La Quinta credit card to accrue points even faster. The hotel was very nice on the inside, and appeared to be new.  There was also no problem with our room.  The problem occurred with the staff.  We were staying at the hotel for three nights, and I was receiving two nights free through my la quinta points that I redeemed.  Because I was using points, and paying for one night, I had to make two different reservations for those three days.  This is at least how the La Quinta 1-800 reservation line has you do it.  So, our first night there was considered our night that we had to pay for the room.  The following morning, I had to stop by the front desk with our room keys, because technically we were "checked out" that morning, and the guy had to recheck us in for our final two nights in which we were using points.  No problem, we have done this before when using points.
+Well, I guess he never checked us into the computer, and only reactivated our keys, because the following morning the housekeeping tries to come into our room even though there is a do not disturb sign posted.  I politely let her know, I didnt need serive.  A few minutes later, another...My husband and I only stay at La Quinta hotels, because we have two dogs.  We travel so much, that I even got the La Quinta credit card to accrue points even faster. The hotel was very nice on the inside, and appeared to be new.  There was also no problem with our room.  The problem occurred with the staff.  We were staying at the hotel for three nights, and I was receiving two nights free through my la quinta points that I redeemed.  Because I was using points, and paying for one night, I had to make two different reservations for those three days.  This is at least how the La Quinta 1-800 reservation line has you do it.  So, our first night there was considered our night that we had to pay for the room.  The following morning, I had to stop by the front desk with our room keys, because technically we were "checked out" that morning, and the guy had to recheck us in for our final two nights in which we were using points.  No problem, we have done this before when using points.Well, I guess he never checked us into the computer, and only reactivated our keys, because the following morning the housekeeping tries to come into our room even though there is a do not disturb sign posted.  I politely let her know, I didnt need serive.  A few minutes later, another housekeeper knocks on the door and tells me to call down to the front desk because they wanted to talk to me.  I called the front desk, and the lady immediately asks me why I am still in the room, and I dont have a reservation.  She was automatically jumping to the conclustion we were squatters and rudely told me that their were other guests that needed that room, and we needed to leave.  I was in shock, and explained that we indeed had a reservation through the next day, and how we had two different reservations set up for three consecutive days due to points. She never apologized and instead just said that she would update the computer, because it didnt show that we were ever checked in for the second reservation, even though she said she could see we had one. Due to the rudeness of the staff, I wish I could give this la quinta a lower score.  What happened to treating customers with respect?MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>My husband and I only stay at La Quinta hotels, because we have two dogs.  We travel so much, that I even got the La Quinta credit card to accrue points even faster. The hotel was very nice on the inside, and appeared to be new.  There was also no problem with our room.  The problem occurred with the staff.  We were staying at the hotel for three nights, and I was receiving two nights free through my la quinta points that I redeemed.  Because I was using points, and paying for one night, I had to make two different reservations for those three days.  This is at least how the La Quinta 1-800 reservation line has you do it.  So, our first night there was considered our night that we had to pay for the room.  The following morning, I had to stop by the front desk with our room keys, because technically we were "checked out" that morning, and the guy had to recheck us in for our final two nights in which we were using points.  No problem, we have done this before when using points.
+Well, I guess he never checked us into the computer, and only reactivated our keys, because the following morning the housekeeping tries to come into our room even though there is a do not disturb sign posted.  I politely let her know, I didnt need serive.  A few minutes later, another...My husband and I only stay at La Quinta hotels, because we have two dogs.  We travel so much, that I even got the La Quinta credit card to accrue points even faster. The hotel was very nice on the inside, and appeared to be new.  There was also no problem with our room.  The problem occurred with the staff.  We were staying at the hotel for three nights, and I was receiving two nights free through my la quinta points that I redeemed.  Because I was using points, and paying for one night, I had to make two different reservations for those three days.  This is at least how the La Quinta 1-800 reservation line has you do it.  So, our first night there was considered our night that we had to pay for the room.  The following morning, I had to stop by the front desk with our room keys, because technically we were "checked out" that morning, and the guy had to recheck us in for our final two nights in which we were using points.  No problem, we have done this before when using points.Well, I guess he never checked us into the computer, and only reactivated our keys, because the following morning the housekeeping tries to come into our room even though there is a do not disturb sign posted.  I politely let her know, I didnt need serive.  A few minutes later, another housekeeper knocks on the door and tells me to call down to the front desk because they wanted to talk to me.  I called the front desk, and the lady immediately asks me why I am still in the room, and I dont have a reservation.  She was automatically jumping to the conclustion we were squatters and rudely told me that their were other guests that needed that room, and we needed to leave.  I was in shock, and explained that we indeed had a reservation through the next day, and how we had two different reservations set up for three consecutive days due to points. She never apologized and instead just said that she would update the computer, because it didnt show that we were ever checked in for the second reservation, even though she said she could see we had one. Due to the rudeness of the staff, I wish I could give this la quinta a lower score.  What happened to treating customers with respect?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r125714435-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>125714435</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We stayed at the LaQuinta on Broadway in Pearland, Tx last weekend for three nights.  Overall, the hotel is very clean; the staff, including housekeeping and  maintenace) were all extremely friendly and accomodating.  We were in a two room King Suite which was very spacious and inviting.  I have stayed at LaQuintas many times in the past; but, this one in Pearland, far exceeds any I have visited before.  I would definitely recommend this hotel.  Oh, and the price you pay is excellent!!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r125375432-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>125375432</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>Nicest LaQuinta I've stayed at</t>
+  </si>
+  <si>
+    <t>This is the nicest La Quinta I've ever stayed at.Very nice grounds, facilities, and staff.  It had a very a clean eating area with a great breakfast, and most importantly clean rooms.I've seen some complaints about the noise.  It wasn't enough to dissuade me from booking my room for my next visit to Houston.The location is great too.  There is every possible type of store and restaurant (both indie and chain) along the several mile strip it's on.    There's even a large mall.I stayed here on business downtown.  About 40 minutes (during rush hour) to downtown, if not during rush hour only 15-20 minutes.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r122854465-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>122854465</t>
+  </si>
+  <si>
+    <t>01/09/2012</t>
+  </si>
+  <si>
+    <t>Lovely property!</t>
+  </si>
+  <si>
+    <t>This is a typical La Quinta. The room was spacious, well appointed and comfortable. The desk clerk was very nice and breakfast was well above average. We stayed here after a cruise and to visit a friend. Pearland is a bit out of the way and we'll probably not have a chance or reason to return. I wish we could carry this property around with us!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r121966186-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>121966186</t>
+  </si>
+  <si>
+    <t>12/21/2011</t>
+  </si>
+  <si>
+    <t>Could have been awesome....</t>
+  </si>
+  <si>
+    <t>I stay almost exclusively at LaQuinta Suites.  This was my first visit to this location.  The check-in was great.  The front desk clerk, (I think her name was Frieda), was outstanding.  She was very friendly and personable; she even served us fresh baked cookies.  The room was very clean and what I have come to expect from LQ.  The problem started later that evening.  We were traveling with two young girls so having a television was very important.  Long story short-we basically had no television the entire time we were there which was not easy with two children in the room.  We reported the problem when we left for the day on Saturday and it was supposed to have been fixed.  It never was.  When we checked out on Sunday morning, I told the clerk (same one as Saturday) that it was never fixed.  Rather than apologizing, "K" immediately blamed the maintenance man.  I asked for a small discount off of my bill but "K" said she had no authority to do anything.  I left my name and phone number and asked that the manager call me to discuss the problem.  I never received a phone call.  Other than the great welcome that we received from Frieda on Friday night, the rest of the customer service we received was terrible.... "K" and the manager who never responded need to take a few lessons from Freida!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I stay almost exclusively at LaQuinta Suites.  This was my first visit to this location.  The check-in was great.  The front desk clerk, (I think her name was Frieda), was outstanding.  She was very friendly and personable; she even served us fresh baked cookies.  The room was very clean and what I have come to expect from LQ.  The problem started later that evening.  We were traveling with two young girls so having a television was very important.  Long story short-we basically had no television the entire time we were there which was not easy with two children in the room.  We reported the problem when we left for the day on Saturday and it was supposed to have been fixed.  It never was.  When we checked out on Sunday morning, I told the clerk (same one as Saturday) that it was never fixed.  Rather than apologizing, "K" immediately blamed the maintenance man.  I asked for a small discount off of my bill but "K" said she had no authority to do anything.  I left my name and phone number and asked that the manager call me to discuss the problem.  I never received a phone call.  Other than the great welcome that we received from Frieda on Friday night, the rest of the customer service we received was terrible.... "K" and the manager who never responded need to take a few lessons from Freida!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r121472803-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>121472803</t>
+  </si>
+  <si>
+    <t>12/06/2011</t>
+  </si>
+  <si>
+    <t>OK but</t>
+  </si>
+  <si>
+    <t>We had booked this hotel over Thanksgiving weekend  to visit family in the areaWe had booked 5 nights but after 3 nights of broken sleep due to the thin walls &amp; the neighbours  keeping us awake at  night  we checked outThe one night I was woken up at 2:30am by the next room fighting  other nights  they were talking  in the nightThe walls are so thin you can hear  snoring  through the wallOur rental car had some damage  done to it (I know the hotel is not responsible)The room was clean &amp; the hotel was fine except for the  thin wallsIf you are a light sleeper choose another hotel</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r102112559-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>102112559</t>
+  </si>
+  <si>
+    <t>03/29/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel!!!</t>
+  </si>
+  <si>
+    <t>Very clean property.  The rooms were spotless and up to date.  This is a newer hotel and it shows.  This hotel allows pets but you would never know that.  There were many other dpgs there, but the walls are pretty thick and you dd not hear many of them bark. Very clean.  We loved this hotel and would stay again, without reservations.  Parking was easy and there are security cameras all over the parking lot, so your car is safe.  I would recommend this hotel.  The price is good and the breakfast is nice as well.  Free WIFI is also available.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r83521543-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>83521543</t>
+  </si>
+  <si>
+    <t>10/14/2010</t>
+  </si>
+  <si>
+    <t>Very nice new hotel - excellent beds</t>
+  </si>
+  <si>
+    <t>I stayed here with my family. The rooms have 2 queen size beds. The construction is new. Hotel is quite clean. The best part is the beds and pillows - they are very comfortable and I really like the cylindrical body pillows. I definitely recommend this hotel. The location of the hotel is also great - very close to a lot of retail stores and restaurants.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1743729-r75832848-La_Quinta_Inn_Suites_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>75832848</t>
+  </si>
+  <si>
+    <t>08/18/2010</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>While much of what previous users commented on is correct, on our stay we noted: (1) the bathtub is very slippery - be careful- no safety mats and not a single grab bar (2) the air conditioner is excellent but the fan has only one speed - hurricane force and (3) it is extremely noisy room to room and from the hall - one of the worst I have stayed in. Nice breakfast though!</t>
+  </si>
+  <si>
+    <t>August 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2674,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2706,7446 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>251</v>
+      </c>
+      <c r="X28" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s">
+        <v>258</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s">
+        <v>192</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>289</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>305</v>
+      </c>
+      <c r="O36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>306</v>
+      </c>
+      <c r="X36" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>305</v>
+      </c>
+      <c r="O37" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>323</v>
+      </c>
+      <c r="X38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>154</v>
+      </c>
+      <c r="L39" t="s">
+        <v>329</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>331</v>
+      </c>
+      <c r="J40" t="s">
+        <v>332</v>
+      </c>
+      <c r="K40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s">
+        <v>334</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>335</v>
+      </c>
+      <c r="O40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>337</v>
+      </c>
+      <c r="J41" t="s">
+        <v>338</v>
+      </c>
+      <c r="K41" t="s">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s">
+        <v>340</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>341</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>347</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>347</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>351</v>
+      </c>
+      <c r="X43" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>354</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44" t="s">
+        <v>357</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>358</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>360</v>
+      </c>
+      <c r="J45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s">
+        <v>363</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>364</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+      <c r="J46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>283</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>375</v>
+      </c>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" t="s">
+        <v>379</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>382</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>383</v>
+      </c>
+      <c r="J49" t="s">
+        <v>384</v>
+      </c>
+      <c r="K49" t="s">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s">
+        <v>386</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>387</v>
+      </c>
+      <c r="O49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="s">
+        <v>390</v>
+      </c>
+      <c r="K50" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s">
+        <v>392</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>387</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>393</v>
+      </c>
+      <c r="X50" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>396</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>397</v>
+      </c>
+      <c r="J51" t="s">
+        <v>398</v>
+      </c>
+      <c r="K51" t="s">
+        <v>399</v>
+      </c>
+      <c r="L51" t="s">
+        <v>400</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>401</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>393</v>
+      </c>
+      <c r="X51" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>404</v>
+      </c>
+      <c r="J52" t="s">
+        <v>405</v>
+      </c>
+      <c r="K52" t="s">
+        <v>406</v>
+      </c>
+      <c r="L52" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>401</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>408</v>
+      </c>
+      <c r="X52" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>412</v>
+      </c>
+      <c r="J53" t="s">
+        <v>413</v>
+      </c>
+      <c r="K53" t="s">
+        <v>414</v>
+      </c>
+      <c r="L53" t="s">
+        <v>415</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>416</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X53" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>420</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>421</v>
+      </c>
+      <c r="J54" t="s">
+        <v>422</v>
+      </c>
+      <c r="K54" t="s">
+        <v>423</v>
+      </c>
+      <c r="L54" t="s">
+        <v>424</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>425</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>417</v>
+      </c>
+      <c r="X54" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>427</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>428</v>
+      </c>
+      <c r="J55" t="s">
+        <v>429</v>
+      </c>
+      <c r="K55" t="s">
+        <v>430</v>
+      </c>
+      <c r="L55" t="s">
+        <v>431</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s">
+        <v>432</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>417</v>
+      </c>
+      <c r="X55" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>434</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>435</v>
+      </c>
+      <c r="J56" t="s">
+        <v>436</v>
+      </c>
+      <c r="K56" t="s">
+        <v>437</v>
+      </c>
+      <c r="L56" t="s">
+        <v>438</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>425</v>
+      </c>
+      <c r="O56" t="s">
+        <v>84</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>417</v>
+      </c>
+      <c r="X56" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>440</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>441</v>
+      </c>
+      <c r="J57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K57" t="s">
+        <v>443</v>
+      </c>
+      <c r="L57" t="s">
+        <v>444</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>425</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>417</v>
+      </c>
+      <c r="X57" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>447</v>
+      </c>
+      <c r="J58" t="s">
+        <v>448</v>
+      </c>
+      <c r="K58" t="s">
+        <v>449</v>
+      </c>
+      <c r="L58" t="s">
+        <v>450</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>425</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>451</v>
+      </c>
+      <c r="X58" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>454</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>455</v>
+      </c>
+      <c r="J59" t="s">
+        <v>456</v>
+      </c>
+      <c r="K59" t="s">
+        <v>457</v>
+      </c>
+      <c r="L59" t="s">
+        <v>458</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>459</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>451</v>
+      </c>
+      <c r="X59" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>461</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>462</v>
+      </c>
+      <c r="J60" t="s">
+        <v>463</v>
+      </c>
+      <c r="K60" t="s">
+        <v>464</v>
+      </c>
+      <c r="L60" t="s">
+        <v>465</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>459</v>
+      </c>
+      <c r="O60" t="s">
+        <v>192</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>466</v>
+      </c>
+      <c r="X60" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>469</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>470</v>
+      </c>
+      <c r="J61" t="s">
+        <v>463</v>
+      </c>
+      <c r="K61" t="s">
+        <v>471</v>
+      </c>
+      <c r="L61" t="s">
+        <v>472</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>459</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>466</v>
+      </c>
+      <c r="X61" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>474</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>475</v>
+      </c>
+      <c r="J62" t="s">
+        <v>476</v>
+      </c>
+      <c r="K62" t="s">
+        <v>477</v>
+      </c>
+      <c r="L62" t="s">
+        <v>478</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>479</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>480</v>
+      </c>
+      <c r="X62" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>483</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>484</v>
+      </c>
+      <c r="J63" t="s">
+        <v>485</v>
+      </c>
+      <c r="K63" t="s">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s">
+        <v>487</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>416</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>489</v>
+      </c>
+      <c r="J64" t="s">
+        <v>490</v>
+      </c>
+      <c r="K64" t="s">
+        <v>491</v>
+      </c>
+      <c r="L64" t="s">
+        <v>492</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>416</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>466</v>
+      </c>
+      <c r="X64" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>494</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>495</v>
+      </c>
+      <c r="J65" t="s">
+        <v>496</v>
+      </c>
+      <c r="K65" t="s">
+        <v>497</v>
+      </c>
+      <c r="L65" t="s">
+        <v>498</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>499</v>
+      </c>
+      <c r="O65" t="s">
+        <v>91</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>500</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>501</v>
+      </c>
+      <c r="J66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K66" t="s">
+        <v>503</v>
+      </c>
+      <c r="L66" t="s">
+        <v>504</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>499</v>
+      </c>
+      <c r="O66" t="s">
+        <v>84</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>505</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>506</v>
+      </c>
+      <c r="J67" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" t="s">
+        <v>508</v>
+      </c>
+      <c r="L67" t="s">
+        <v>509</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>499</v>
+      </c>
+      <c r="O67" t="s">
+        <v>91</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>466</v>
+      </c>
+      <c r="X67" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>511</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>512</v>
+      </c>
+      <c r="J68" t="s">
+        <v>513</v>
+      </c>
+      <c r="K68" t="s">
+        <v>514</v>
+      </c>
+      <c r="L68" t="s">
+        <v>515</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>516</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>517</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>518</v>
+      </c>
+      <c r="J69" t="s">
+        <v>519</v>
+      </c>
+      <c r="K69" t="s">
+        <v>520</v>
+      </c>
+      <c r="L69" t="s">
+        <v>521</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>516</v>
+      </c>
+      <c r="O69" t="s">
+        <v>91</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>523</v>
+      </c>
+      <c r="J70" t="s">
+        <v>524</v>
+      </c>
+      <c r="K70" t="s">
+        <v>525</v>
+      </c>
+      <c r="L70" t="s">
+        <v>526</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>527</v>
+      </c>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>528</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>529</v>
+      </c>
+      <c r="J71" t="s">
+        <v>530</v>
+      </c>
+      <c r="K71" t="s">
+        <v>531</v>
+      </c>
+      <c r="L71" t="s">
+        <v>532</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>533</v>
+      </c>
+      <c r="O71" t="s">
+        <v>432</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>535</v>
+      </c>
+      <c r="J72" t="s">
+        <v>536</v>
+      </c>
+      <c r="K72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" t="s">
+        <v>538</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>539</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>540</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>541</v>
+      </c>
+      <c r="J73" t="s">
+        <v>542</v>
+      </c>
+      <c r="K73" t="s">
+        <v>543</v>
+      </c>
+      <c r="L73" t="s">
+        <v>544</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>539</v>
+      </c>
+      <c r="O73" t="s">
+        <v>91</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>546</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>547</v>
+      </c>
+      <c r="J74" t="s">
+        <v>548</v>
+      </c>
+      <c r="K74" t="s">
+        <v>549</v>
+      </c>
+      <c r="L74" t="s">
+        <v>550</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>551</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>552</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
+      </c>
+      <c r="J75" t="s">
+        <v>554</v>
+      </c>
+      <c r="K75" t="s">
+        <v>555</v>
+      </c>
+      <c r="L75" t="s">
+        <v>556</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>551</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>558</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>559</v>
+      </c>
+      <c r="J76" t="s">
+        <v>554</v>
+      </c>
+      <c r="K76" t="s">
+        <v>163</v>
+      </c>
+      <c r="L76" t="s">
+        <v>560</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>551</v>
+      </c>
+      <c r="O76" t="s">
+        <v>84</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>561</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>562</v>
+      </c>
+      <c r="J77" t="s">
+        <v>563</v>
+      </c>
+      <c r="K77" t="s">
+        <v>564</v>
+      </c>
+      <c r="L77" t="s">
+        <v>565</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>566</v>
+      </c>
+      <c r="O77" t="s">
+        <v>91</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>568</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>569</v>
+      </c>
+      <c r="J78" t="s">
+        <v>570</v>
+      </c>
+      <c r="K78" t="s">
+        <v>571</v>
+      </c>
+      <c r="L78" t="s">
+        <v>572</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>566</v>
+      </c>
+      <c r="O78" t="s">
+        <v>432</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>573</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>574</v>
+      </c>
+      <c r="J79" t="s">
+        <v>575</v>
+      </c>
+      <c r="K79" t="s">
+        <v>576</v>
+      </c>
+      <c r="L79" t="s">
+        <v>577</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>578</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>579</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>580</v>
+      </c>
+      <c r="J80" t="s">
+        <v>581</v>
+      </c>
+      <c r="K80" t="s">
+        <v>582</v>
+      </c>
+      <c r="L80" t="s">
+        <v>583</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>578</v>
+      </c>
+      <c r="O80" t="s">
+        <v>432</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>584</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>585</v>
+      </c>
+      <c r="J81" t="s">
+        <v>586</v>
+      </c>
+      <c r="K81" t="s">
+        <v>587</v>
+      </c>
+      <c r="L81" t="s">
+        <v>588</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>589</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>590</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>591</v>
+      </c>
+      <c r="J82" t="s">
+        <v>592</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>533</v>
+      </c>
+      <c r="O82" t="s">
+        <v>91</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>593</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>594</v>
+      </c>
+      <c r="J83" t="s">
+        <v>595</v>
+      </c>
+      <c r="K83" t="s">
+        <v>596</v>
+      </c>
+      <c r="L83" t="s">
+        <v>597</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>589</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>599</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>600</v>
+      </c>
+      <c r="J84" t="s">
+        <v>601</v>
+      </c>
+      <c r="K84" t="s">
+        <v>602</v>
+      </c>
+      <c r="L84" t="s">
+        <v>603</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>589</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>604</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>605</v>
+      </c>
+      <c r="J85" t="s">
+        <v>606</v>
+      </c>
+      <c r="K85" t="s">
+        <v>607</v>
+      </c>
+      <c r="L85" t="s">
+        <v>608</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>609</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>610</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>611</v>
+      </c>
+      <c r="J86" t="s">
+        <v>612</v>
+      </c>
+      <c r="K86" t="s">
+        <v>582</v>
+      </c>
+      <c r="L86" t="s">
+        <v>613</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>614</v>
+      </c>
+      <c r="O86" t="s">
+        <v>91</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>615</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>616</v>
+      </c>
+      <c r="J87" t="s">
+        <v>617</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s">
+        <v>75</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>614</v>
+      </c>
+      <c r="O87" t="s">
+        <v>432</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>618</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>619</v>
+      </c>
+      <c r="J88" t="s">
+        <v>617</v>
+      </c>
+      <c r="K88" t="s">
+        <v>620</v>
+      </c>
+      <c r="L88" t="s">
+        <v>621</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>614</v>
+      </c>
+      <c r="O88" t="s">
+        <v>91</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>623</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>624</v>
+      </c>
+      <c r="J89" t="s">
+        <v>625</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>626</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>627</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>628</v>
+      </c>
+      <c r="J90" t="s">
+        <v>629</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>626</v>
+      </c>
+      <c r="O90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>630</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>631</v>
+      </c>
+      <c r="J91" t="s">
+        <v>632</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>633</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>634</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>635</v>
+      </c>
+      <c r="J92" t="s">
+        <v>636</v>
+      </c>
+      <c r="K92" t="s">
+        <v>637</v>
+      </c>
+      <c r="L92" t="s">
+        <v>638</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>633</v>
+      </c>
+      <c r="O92" t="s">
+        <v>91</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>639</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>640</v>
+      </c>
+      <c r="J93" t="s">
+        <v>636</v>
+      </c>
+      <c r="K93" t="s">
+        <v>641</v>
+      </c>
+      <c r="L93" t="s">
+        <v>642</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>633</v>
+      </c>
+      <c r="O93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>643</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>644</v>
+      </c>
+      <c r="J94" t="s">
+        <v>645</v>
+      </c>
+      <c r="K94" t="s">
+        <v>646</v>
+      </c>
+      <c r="L94" t="s">
+        <v>647</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>633</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>648</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>649</v>
+      </c>
+      <c r="J95" t="s">
+        <v>650</v>
+      </c>
+      <c r="K95" t="s">
+        <v>651</v>
+      </c>
+      <c r="L95" t="s">
+        <v>652</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>653</v>
+      </c>
+      <c r="O95" t="s">
+        <v>84</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>655</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>656</v>
+      </c>
+      <c r="J96" t="s">
+        <v>657</v>
+      </c>
+      <c r="K96" t="s">
+        <v>658</v>
+      </c>
+      <c r="L96" t="s">
+        <v>659</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>653</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>660</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>661</v>
+      </c>
+      <c r="J97" t="s">
+        <v>662</v>
+      </c>
+      <c r="K97" t="s">
+        <v>663</v>
+      </c>
+      <c r="L97" t="s">
+        <v>664</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>653</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>665</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>666</v>
+      </c>
+      <c r="J98" t="s">
+        <v>667</v>
+      </c>
+      <c r="K98" t="s">
+        <v>668</v>
+      </c>
+      <c r="L98" t="s">
+        <v>669</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>670</v>
+      </c>
+      <c r="O98" t="s">
+        <v>84</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>672</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>673</v>
+      </c>
+      <c r="J99" t="s">
+        <v>674</v>
+      </c>
+      <c r="K99" t="s">
+        <v>675</v>
+      </c>
+      <c r="L99" t="s">
+        <v>676</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>677</v>
+      </c>
+      <c r="O99" t="s">
+        <v>84</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>678</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>679</v>
+      </c>
+      <c r="J100" t="s">
+        <v>680</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>681</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>682</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>683</v>
+      </c>
+      <c r="J101" t="s">
+        <v>684</v>
+      </c>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s"/>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>685</v>
+      </c>
+      <c r="O101" t="s">
+        <v>52</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>686</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>687</v>
+      </c>
+      <c r="J102" t="s">
+        <v>688</v>
+      </c>
+      <c r="K102" t="s"/>
+      <c r="L102" t="s"/>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>685</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>689</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>690</v>
+      </c>
+      <c r="J103" t="s">
+        <v>691</v>
+      </c>
+      <c r="K103" t="s">
+        <v>692</v>
+      </c>
+      <c r="L103" t="s">
+        <v>693</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>685</v>
+      </c>
+      <c r="O103" t="s">
+        <v>52</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>694</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>695</v>
+      </c>
+      <c r="J104" t="s">
+        <v>696</v>
+      </c>
+      <c r="K104" t="s">
+        <v>697</v>
+      </c>
+      <c r="L104" t="s">
+        <v>698</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>699</v>
+      </c>
+      <c r="O104" t="s">
+        <v>52</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>701</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>702</v>
+      </c>
+      <c r="J105" t="s">
+        <v>703</v>
+      </c>
+      <c r="K105" t="s">
+        <v>704</v>
+      </c>
+      <c r="L105" t="s">
+        <v>705</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>706</v>
+      </c>
+      <c r="O105" t="s">
+        <v>432</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>707</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>708</v>
+      </c>
+      <c r="J106" t="s">
+        <v>709</v>
+      </c>
+      <c r="K106" t="s">
+        <v>710</v>
+      </c>
+      <c r="L106" t="s">
+        <v>711</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>712</v>
+      </c>
+      <c r="O106" t="s">
+        <v>84</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>713</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>714</v>
+      </c>
+      <c r="J107" t="s">
+        <v>715</v>
+      </c>
+      <c r="K107" t="s">
+        <v>716</v>
+      </c>
+      <c r="L107" t="s">
+        <v>717</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>712</v>
+      </c>
+      <c r="O107" t="s">
+        <v>432</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>718</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>719</v>
+      </c>
+      <c r="J108" t="s">
+        <v>720</v>
+      </c>
+      <c r="K108" t="s">
+        <v>721</v>
+      </c>
+      <c r="L108" t="s">
+        <v>722</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>723</v>
+      </c>
+      <c r="O108" t="s">
+        <v>432</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>725</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>726</v>
+      </c>
+      <c r="J109" t="s">
+        <v>727</v>
+      </c>
+      <c r="K109" t="s">
+        <v>728</v>
+      </c>
+      <c r="L109" t="s">
+        <v>729</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>730</v>
+      </c>
+      <c r="O109" t="s">
+        <v>91</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>731</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s">
+        <v>732</v>
+      </c>
+      <c r="J110" t="s">
+        <v>733</v>
+      </c>
+      <c r="K110" t="s">
+        <v>734</v>
+      </c>
+      <c r="L110" t="s">
+        <v>735</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>736</v>
+      </c>
+      <c r="O110" t="s">
+        <v>91</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s">
+        <v>737</v>
+      </c>
+      <c r="G111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" t="s">
+        <v>738</v>
+      </c>
+      <c r="J111" t="s">
+        <v>739</v>
+      </c>
+      <c r="K111" t="s">
+        <v>740</v>
+      </c>
+      <c r="L111" t="s">
+        <v>741</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>742</v>
+      </c>
+      <c r="O111" t="s">
+        <v>52</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>56182</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
+        <v>743</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" t="s">
+        <v>744</v>
+      </c>
+      <c r="J112" t="s">
+        <v>745</v>
+      </c>
+      <c r="K112" t="s">
+        <v>746</v>
+      </c>
+      <c r="L112" t="s">
+        <v>747</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>748</v>
+      </c>
+      <c r="O112" t="s">
+        <v>91</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
